--- a/qc/static/qc/QC Seiscomp.xlsx
+++ b/qc/static/qc/QC Seiscomp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>QUALITY CONTROL (QC-3)</t>
   </si>
@@ -98,100 +98,10 @@
     <t>Ket</t>
   </si>
   <si>
-    <t>11.89771 S</t>
-  </si>
-  <si>
-    <t>166.39536 E</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>10 km</t>
-  </si>
-  <si>
-    <t>Santa Cruz Islands</t>
-  </si>
-  <si>
     <t>Prev</t>
   </si>
   <si>
-    <t>12.15061 S</t>
-  </si>
-  <si>
-    <t>165.96417 E</t>
-  </si>
-  <si>
-    <t>mb</t>
-  </si>
-  <si>
-    <t>35 km</t>
-  </si>
-  <si>
     <t>QC</t>
-  </si>
-  <si>
-    <t>4.62873 S</t>
-  </si>
-  <si>
-    <t>130.26984 E</t>
-  </si>
-  <si>
-    <t>11 km</t>
-  </si>
-  <si>
-    <t>Banda Sea</t>
-  </si>
-  <si>
-    <t>4.71038 S</t>
-  </si>
-  <si>
-    <t>130.24854 E</t>
-  </si>
-  <si>
-    <t>MLv</t>
-  </si>
-  <si>
-    <t>18 km</t>
-  </si>
-  <si>
-    <t>7.01574 S</t>
-  </si>
-  <si>
-    <t>129.64021 E</t>
-  </si>
-  <si>
-    <t>176 km</t>
-  </si>
-  <si>
-    <t>6.72474 S</t>
-  </si>
-  <si>
-    <t>129.48380 E</t>
-  </si>
-  <si>
-    <t>130 km</t>
-  </si>
-  <si>
-    <t>8.20744 S</t>
-  </si>
-  <si>
-    <t>119.79731 E</t>
-  </si>
-  <si>
-    <t>171 km</t>
-  </si>
-  <si>
-    <t>Flores Region, Indonesia</t>
-  </si>
-  <si>
-    <t>8.18256 S</t>
-  </si>
-  <si>
-    <t>119.83324 E</t>
-  </si>
-  <si>
-    <t>174 km</t>
   </si>
   <si>
     <t xml:space="preserve">Mengetahui, </t>
@@ -1509,10 +1419,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N998"/>
+  <dimension ref="B1:N992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -1659,327 +1569,141 @@
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
-        <v>45637</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.697199074074074</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="2:14">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14">
-        <v>5.46</v>
-      </c>
-      <c r="H8" s="14" t="s">
+    </row>
+    <row r="10" ht="14.4" customHeight="1" spans="2:14">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" ht="14.4" customHeight="1" spans="2:14">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" ht="23.4" customHeight="1" spans="2:14">
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="14">
-        <v>90</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14">
-        <v>168</v>
-      </c>
-      <c r="M8" s="32" t="s">
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="2:14">
+      <c r="B13" s="19"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="2:14">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
-        <v>45637</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0.697280092592593</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="18">
-        <v>5.42</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="18">
-        <v>105</v>
-      </c>
-      <c r="K9" s="18">
-        <v>2</v>
-      </c>
-      <c r="L9" s="18">
-        <v>84</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="2:14">
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12">
-        <v>45637</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.75849537037037</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3.76</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="14">
-        <v>28</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14">
-        <v>173</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="2:14">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16">
-        <v>45637</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.75849537037037</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="18">
-        <v>3.84</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="18">
-        <v>47</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="L11" s="18">
-        <v>134</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="2:14">
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45637</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.774780092592593</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="14">
-        <v>4.37</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="14">
-        <v>20</v>
-      </c>
-      <c r="K12" s="14">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14">
-        <v>83</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="2:14">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16">
-        <v>45637</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0.774780092592593</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="18">
-        <v>4.47</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="18">
-        <v>42</v>
-      </c>
-      <c r="K13" s="18">
-        <v>2</v>
-      </c>
-      <c r="L13" s="18">
-        <v>109</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="2:14">
-      <c r="B14" s="11">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45637</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.783171296296296</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="14">
-        <v>3.59</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="14">
-        <v>48</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="14">
-        <v>93</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="2:14">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16">
-        <v>45637</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0.783159722222222</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="18">
-        <v>3.66</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="18">
-        <v>76</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="18">
-        <v>90</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" customHeight="1" spans="2:14">
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="2:14">
+      <c r="B14" s="19"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="2:14">
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="2:14">
       <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="19"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
@@ -1987,14 +1711,14 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" spans="2:14">
+    <row r="17" ht="15.75" customHeight="1" spans="2:14">
       <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
@@ -2002,16 +1726,16 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="19"/>
     </row>
-    <row r="18" ht="23.4" customHeight="1" spans="2:14">
+    <row r="18" ht="15.75" customHeight="1" spans="2:14">
       <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
-        <v>55</v>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
@@ -2019,18 +1743,18 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="23" t="s">
-        <v>56</v>
+      <c r="M18" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="N18" s="19"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="2:14">
       <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
@@ -2038,114 +1762,46 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="23" t="s">
-        <v>58</v>
+      <c r="M19" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="19"/>
+    <row r="20" ht="15.75" customHeight="1" spans="7:13">
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="19"/>
       <c r="M20" s="26"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="19"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="7:11">
       <c r="G21" s="20"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="19"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="7:11">
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="19"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="7:11">
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B24" s="19"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="19"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="7:11">
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B25" s="19"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="19"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="7:11">
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="7:13">
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="7:11">
       <c r="G26" s="20"/>
       <c r="H26" s="21"/>
       <c r="K26" s="20"/>
-      <c r="M26" s="26"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="7:11">
       <c r="G27" s="20"/>
@@ -6977,38 +6633,8 @@
       <c r="H992" s="21"/>
       <c r="K992" s="20"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G993" s="20"/>
-      <c r="H993" s="21"/>
-      <c r="K993" s="20"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G994" s="20"/>
-      <c r="H994" s="21"/>
-      <c r="K994" s="20"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G995" s="20"/>
-      <c r="H995" s="21"/>
-      <c r="K995" s="20"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G996" s="20"/>
-      <c r="H996" s="21"/>
-      <c r="K996" s="20"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G997" s="20"/>
-      <c r="H997" s="21"/>
-      <c r="K997" s="20"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G998" s="20"/>
-      <c r="H998" s="21"/>
-      <c r="K998" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -7018,9 +6644,6 @@
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>

--- a/qc/static/qc/QC Seiscomp.xlsx
+++ b/qc/static/qc/QC Seiscomp.xlsx
@@ -827,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -842,9 +842,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1367,7 +1366,7 @@
   <dimension ref="B1:N990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -1403,9 +1402,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" ht="23.4" customHeight="1" spans="2:14">
       <c r="B3" s="2" t="s">
@@ -1418,9 +1417,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" ht="23.4" customHeight="1" spans="2:14">
       <c r="B4" s="2" t="s">
@@ -1433,9 +1432,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" ht="23.4" customHeight="1" spans="2:14">
       <c r="B5" s="2" t="s">
@@ -1448,5109 +1447,5107 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" ht="23.4" customHeight="1" spans="2:14">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="2:14">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1" spans="2:14">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" ht="14.4" customHeight="1" spans="2:14">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" ht="23.4" customHeight="1" spans="2:14">
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="15" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B11" s="11"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B12" s="11"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B15" s="11"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B16" s="11"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="24" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="2:14">
-      <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="21" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="7:13">
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="M18" s="18"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="K21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="K22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="K23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="K24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="K25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="K26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="K27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="K28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="K29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="K30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="K31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="K32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="K33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="K34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="K35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="K36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="K37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="K38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="K39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="K40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="K41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="K42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="K43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="K44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="K45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="K45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="K46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="K47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="K48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="K49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="K49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="K50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="K51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="K51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c r="K52" s="12"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="K53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="K53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="K54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="K55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="K55" s="11"/>
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="K56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="K56" s="11"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-      <c r="K57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="K57" s="11"/>
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="K58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c r="K59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="K59" s="11"/>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
-      <c r="K60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="K60" s="11"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c r="K61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="K61" s="11"/>
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="K62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c r="K63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c r="K64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c r="K65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
+      <c r="K65" s="11"/>
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c r="K66" s="12"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="K66" s="11"/>
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c r="K67" s="12"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+      <c r="K67" s="11"/>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c r="K68" s="12"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+      <c r="K68" s="11"/>
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c r="K69" s="12"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+      <c r="K69" s="11"/>
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c r="K70" s="12"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-      <c r="K71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+      <c r="K71" s="11"/>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c r="K72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12"/>
+      <c r="K72" s="11"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
-      <c r="K73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
+      <c r="K73" s="11"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="K74" s="12"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+      <c r="K74" s="11"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c r="K75" s="12"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12"/>
+      <c r="K75" s="11"/>
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c r="K76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+      <c r="K76" s="11"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c r="K77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+      <c r="K77" s="11"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c r="K78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+      <c r="K78" s="11"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c r="K79" s="12"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12"/>
+      <c r="K79" s="11"/>
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c r="K80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
+      <c r="K80" s="11"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c r="K81" s="12"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c r="K82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-      <c r="K83" s="12"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
+      <c r="K83" s="11"/>
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G84" s="12"/>
-      <c r="H84" s="13"/>
-      <c r="K84" s="12"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-      <c r="K85" s="12"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12"/>
+      <c r="K85" s="11"/>
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c r="K86" s="12"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12"/>
+      <c r="K86" s="11"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c r="K87" s="12"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="K87" s="11"/>
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c r="K88" s="12"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
+      <c r="K88" s="11"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c r="K89" s="12"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12"/>
+      <c r="K89" s="11"/>
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c r="K90" s="12"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12"/>
+      <c r="K90" s="11"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
-      <c r="K91" s="12"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="K91" s="11"/>
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="K92" s="12"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="K92" s="11"/>
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c r="K93" s="12"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+      <c r="K93" s="11"/>
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="K94" s="12"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="K94" s="11"/>
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-      <c r="K95" s="12"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="K95" s="11"/>
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-      <c r="K96" s="12"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="K96" s="11"/>
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c r="K97" s="12"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="K97" s="11"/>
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G98" s="12"/>
-      <c r="H98" s="13"/>
-      <c r="K98" s="12"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+      <c r="K98" s="11"/>
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c r="K99" s="12"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="K99" s="11"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-      <c r="K100" s="12"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+      <c r="K100" s="11"/>
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c r="K101" s="12"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+      <c r="K101" s="11"/>
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-      <c r="K102" s="12"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="K102" s="11"/>
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-      <c r="K103" s="12"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="K103" s="11"/>
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-      <c r="K104" s="12"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="K104" s="11"/>
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G105" s="12"/>
-      <c r="H105" s="13"/>
-      <c r="K105" s="12"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="K105" s="11"/>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c r="K106" s="12"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="K106" s="11"/>
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G107" s="12"/>
-      <c r="H107" s="13"/>
-      <c r="K107" s="12"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="K107" s="11"/>
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G108" s="12"/>
-      <c r="H108" s="13"/>
-      <c r="K108" s="12"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+      <c r="K108" s="11"/>
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G109" s="12"/>
-      <c r="H109" s="13"/>
-      <c r="K109" s="12"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+      <c r="K109" s="11"/>
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G110" s="12"/>
-      <c r="H110" s="13"/>
-      <c r="K110" s="12"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+      <c r="K110" s="11"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G111" s="12"/>
-      <c r="H111" s="13"/>
-      <c r="K111" s="12"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="K111" s="11"/>
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G112" s="12"/>
-      <c r="H112" s="13"/>
-      <c r="K112" s="12"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+      <c r="K112" s="11"/>
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G113" s="12"/>
-      <c r="H113" s="13"/>
-      <c r="K113" s="12"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="K113" s="11"/>
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G114" s="12"/>
-      <c r="H114" s="13"/>
-      <c r="K114" s="12"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="K114" s="11"/>
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G115" s="12"/>
-      <c r="H115" s="13"/>
-      <c r="K115" s="12"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+      <c r="K115" s="11"/>
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G116" s="12"/>
-      <c r="H116" s="13"/>
-      <c r="K116" s="12"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
+      <c r="K116" s="11"/>
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G117" s="12"/>
-      <c r="H117" s="13"/>
-      <c r="K117" s="12"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="12"/>
+      <c r="K117" s="11"/>
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G118" s="12"/>
-      <c r="H118" s="13"/>
-      <c r="K118" s="12"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12"/>
+      <c r="K118" s="11"/>
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G119" s="12"/>
-      <c r="H119" s="13"/>
-      <c r="K119" s="12"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12"/>
+      <c r="K119" s="11"/>
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G120" s="12"/>
-      <c r="H120" s="13"/>
-      <c r="K120" s="12"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="12"/>
+      <c r="K120" s="11"/>
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G121" s="12"/>
-      <c r="H121" s="13"/>
-      <c r="K121" s="12"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12"/>
+      <c r="K121" s="11"/>
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G122" s="12"/>
-      <c r="H122" s="13"/>
-      <c r="K122" s="12"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12"/>
+      <c r="K122" s="11"/>
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G123" s="12"/>
-      <c r="H123" s="13"/>
-      <c r="K123" s="12"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="12"/>
+      <c r="K123" s="11"/>
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G124" s="12"/>
-      <c r="H124" s="13"/>
-      <c r="K124" s="12"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="12"/>
+      <c r="K124" s="11"/>
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
-      <c r="K125" s="12"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="12"/>
+      <c r="K125" s="11"/>
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
-      <c r="K126" s="12"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="12"/>
+      <c r="K126" s="11"/>
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G127" s="12"/>
-      <c r="H127" s="13"/>
-      <c r="K127" s="12"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12"/>
+      <c r="K127" s="11"/>
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G128" s="12"/>
-      <c r="H128" s="13"/>
-      <c r="K128" s="12"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="12"/>
+      <c r="K128" s="11"/>
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
-      <c r="K129" s="12"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12"/>
+      <c r="K129" s="11"/>
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
-      <c r="K130" s="12"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12"/>
+      <c r="K130" s="11"/>
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G131" s="12"/>
-      <c r="H131" s="13"/>
-      <c r="K131" s="12"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="12"/>
+      <c r="K131" s="11"/>
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G132" s="12"/>
-      <c r="H132" s="13"/>
-      <c r="K132" s="12"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="12"/>
+      <c r="K132" s="11"/>
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
-      <c r="K133" s="12"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12"/>
+      <c r="K133" s="11"/>
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G134" s="12"/>
-      <c r="H134" s="13"/>
-      <c r="K134" s="12"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="12"/>
+      <c r="K134" s="11"/>
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G135" s="12"/>
-      <c r="H135" s="13"/>
-      <c r="K135" s="12"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="12"/>
+      <c r="K135" s="11"/>
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G136" s="12"/>
-      <c r="H136" s="13"/>
-      <c r="K136" s="12"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="12"/>
+      <c r="K136" s="11"/>
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
-      <c r="K137" s="12"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="12"/>
+      <c r="K137" s="11"/>
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G138" s="12"/>
-      <c r="H138" s="13"/>
-      <c r="K138" s="12"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="12"/>
+      <c r="K138" s="11"/>
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G139" s="12"/>
-      <c r="H139" s="13"/>
-      <c r="K139" s="12"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="12"/>
+      <c r="K139" s="11"/>
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G140" s="12"/>
-      <c r="H140" s="13"/>
-      <c r="K140" s="12"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12"/>
+      <c r="K140" s="11"/>
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G141" s="12"/>
-      <c r="H141" s="13"/>
-      <c r="K141" s="12"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="12"/>
+      <c r="K141" s="11"/>
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G142" s="12"/>
-      <c r="H142" s="13"/>
-      <c r="K142" s="12"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="12"/>
+      <c r="K142" s="11"/>
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G143" s="12"/>
-      <c r="H143" s="13"/>
-      <c r="K143" s="12"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="12"/>
+      <c r="K143" s="11"/>
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G144" s="12"/>
-      <c r="H144" s="13"/>
-      <c r="K144" s="12"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="12"/>
+      <c r="K144" s="11"/>
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G145" s="12"/>
-      <c r="H145" s="13"/>
-      <c r="K145" s="12"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="12"/>
+      <c r="K145" s="11"/>
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G146" s="12"/>
-      <c r="H146" s="13"/>
-      <c r="K146" s="12"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12"/>
+      <c r="K146" s="11"/>
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G147" s="12"/>
-      <c r="H147" s="13"/>
-      <c r="K147" s="12"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="12"/>
+      <c r="K147" s="11"/>
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G148" s="12"/>
-      <c r="H148" s="13"/>
-      <c r="K148" s="12"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="12"/>
+      <c r="K148" s="11"/>
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G149" s="12"/>
-      <c r="H149" s="13"/>
-      <c r="K149" s="12"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="12"/>
+      <c r="K149" s="11"/>
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G150" s="12"/>
-      <c r="H150" s="13"/>
-      <c r="K150" s="12"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="12"/>
+      <c r="K150" s="11"/>
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G151" s="12"/>
-      <c r="H151" s="13"/>
-      <c r="K151" s="12"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="12"/>
+      <c r="K151" s="11"/>
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G152" s="12"/>
-      <c r="H152" s="13"/>
-      <c r="K152" s="12"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="12"/>
+      <c r="K152" s="11"/>
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G153" s="12"/>
-      <c r="H153" s="13"/>
-      <c r="K153" s="12"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="12"/>
+      <c r="K153" s="11"/>
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G154" s="12"/>
-      <c r="H154" s="13"/>
-      <c r="K154" s="12"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="12"/>
+      <c r="K154" s="11"/>
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G155" s="12"/>
-      <c r="H155" s="13"/>
-      <c r="K155" s="12"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="12"/>
+      <c r="K155" s="11"/>
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G156" s="12"/>
-      <c r="H156" s="13"/>
-      <c r="K156" s="12"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="12"/>
+      <c r="K156" s="11"/>
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G157" s="12"/>
-      <c r="H157" s="13"/>
-      <c r="K157" s="12"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="12"/>
+      <c r="K157" s="11"/>
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G158" s="12"/>
-      <c r="H158" s="13"/>
-      <c r="K158" s="12"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="12"/>
+      <c r="K158" s="11"/>
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G159" s="12"/>
-      <c r="H159" s="13"/>
-      <c r="K159" s="12"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="12"/>
+      <c r="K159" s="11"/>
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G160" s="12"/>
-      <c r="H160" s="13"/>
-      <c r="K160" s="12"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="12"/>
+      <c r="K160" s="11"/>
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G161" s="12"/>
-      <c r="H161" s="13"/>
-      <c r="K161" s="12"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="12"/>
+      <c r="K161" s="11"/>
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G162" s="12"/>
-      <c r="H162" s="13"/>
-      <c r="K162" s="12"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="12"/>
+      <c r="K162" s="11"/>
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G163" s="12"/>
-      <c r="H163" s="13"/>
-      <c r="K163" s="12"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="12"/>
+      <c r="K163" s="11"/>
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G164" s="12"/>
-      <c r="H164" s="13"/>
-      <c r="K164" s="12"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="12"/>
+      <c r="K164" s="11"/>
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G165" s="12"/>
-      <c r="H165" s="13"/>
-      <c r="K165" s="12"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12"/>
+      <c r="K165" s="11"/>
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G166" s="12"/>
-      <c r="H166" s="13"/>
-      <c r="K166" s="12"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="12"/>
+      <c r="K166" s="11"/>
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G167" s="12"/>
-      <c r="H167" s="13"/>
-      <c r="K167" s="12"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="12"/>
+      <c r="K167" s="11"/>
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G168" s="12"/>
-      <c r="H168" s="13"/>
-      <c r="K168" s="12"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="12"/>
+      <c r="K168" s="11"/>
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G169" s="12"/>
-      <c r="H169" s="13"/>
-      <c r="K169" s="12"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="12"/>
+      <c r="K169" s="11"/>
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G170" s="12"/>
-      <c r="H170" s="13"/>
-      <c r="K170" s="12"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="12"/>
+      <c r="K170" s="11"/>
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G171" s="12"/>
-      <c r="H171" s="13"/>
-      <c r="K171" s="12"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="12"/>
+      <c r="K171" s="11"/>
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G172" s="12"/>
-      <c r="H172" s="13"/>
-      <c r="K172" s="12"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12"/>
+      <c r="K172" s="11"/>
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G173" s="12"/>
-      <c r="H173" s="13"/>
-      <c r="K173" s="12"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="12"/>
+      <c r="K173" s="11"/>
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G174" s="12"/>
-      <c r="H174" s="13"/>
-      <c r="K174" s="12"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="12"/>
+      <c r="K174" s="11"/>
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G175" s="12"/>
-      <c r="H175" s="13"/>
-      <c r="K175" s="12"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="12"/>
+      <c r="K175" s="11"/>
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G176" s="12"/>
-      <c r="H176" s="13"/>
-      <c r="K176" s="12"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="12"/>
+      <c r="K176" s="11"/>
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G177" s="12"/>
-      <c r="H177" s="13"/>
-      <c r="K177" s="12"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="12"/>
+      <c r="K177" s="11"/>
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G178" s="12"/>
-      <c r="H178" s="13"/>
-      <c r="K178" s="12"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="12"/>
+      <c r="K178" s="11"/>
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G179" s="12"/>
-      <c r="H179" s="13"/>
-      <c r="K179" s="12"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="12"/>
+      <c r="K179" s="11"/>
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G180" s="12"/>
-      <c r="H180" s="13"/>
-      <c r="K180" s="12"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="12"/>
+      <c r="K180" s="11"/>
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G181" s="12"/>
-      <c r="H181" s="13"/>
-      <c r="K181" s="12"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="12"/>
+      <c r="K181" s="11"/>
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G182" s="12"/>
-      <c r="H182" s="13"/>
-      <c r="K182" s="12"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="12"/>
+      <c r="K182" s="11"/>
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G183" s="12"/>
-      <c r="H183" s="13"/>
-      <c r="K183" s="12"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="12"/>
+      <c r="K183" s="11"/>
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G184" s="12"/>
-      <c r="H184" s="13"/>
-      <c r="K184" s="12"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="12"/>
+      <c r="K184" s="11"/>
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G185" s="12"/>
-      <c r="H185" s="13"/>
-      <c r="K185" s="12"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="12"/>
+      <c r="K185" s="11"/>
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G186" s="12"/>
-      <c r="H186" s="13"/>
-      <c r="K186" s="12"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="12"/>
+      <c r="K186" s="11"/>
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G187" s="12"/>
-      <c r="H187" s="13"/>
-      <c r="K187" s="12"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="12"/>
+      <c r="K187" s="11"/>
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G188" s="12"/>
-      <c r="H188" s="13"/>
-      <c r="K188" s="12"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="12"/>
+      <c r="K188" s="11"/>
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G189" s="12"/>
-      <c r="H189" s="13"/>
-      <c r="K189" s="12"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="12"/>
+      <c r="K189" s="11"/>
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G190" s="12"/>
-      <c r="H190" s="13"/>
-      <c r="K190" s="12"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="12"/>
+      <c r="K190" s="11"/>
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G191" s="12"/>
-      <c r="H191" s="13"/>
-      <c r="K191" s="12"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="12"/>
+      <c r="K191" s="11"/>
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G192" s="12"/>
-      <c r="H192" s="13"/>
-      <c r="K192" s="12"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="12"/>
+      <c r="K192" s="11"/>
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G193" s="12"/>
-      <c r="H193" s="13"/>
-      <c r="K193" s="12"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="12"/>
+      <c r="K193" s="11"/>
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G194" s="12"/>
-      <c r="H194" s="13"/>
-      <c r="K194" s="12"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="12"/>
+      <c r="K194" s="11"/>
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G195" s="12"/>
-      <c r="H195" s="13"/>
-      <c r="K195" s="12"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="12"/>
+      <c r="K195" s="11"/>
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G196" s="12"/>
-      <c r="H196" s="13"/>
-      <c r="K196" s="12"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="12"/>
+      <c r="K196" s="11"/>
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G197" s="12"/>
-      <c r="H197" s="13"/>
-      <c r="K197" s="12"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="12"/>
+      <c r="K197" s="11"/>
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G198" s="12"/>
-      <c r="H198" s="13"/>
-      <c r="K198" s="12"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="12"/>
+      <c r="K198" s="11"/>
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G199" s="12"/>
-      <c r="H199" s="13"/>
-      <c r="K199" s="12"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="12"/>
+      <c r="K199" s="11"/>
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G200" s="12"/>
-      <c r="H200" s="13"/>
-      <c r="K200" s="12"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="12"/>
+      <c r="K200" s="11"/>
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G201" s="12"/>
-      <c r="H201" s="13"/>
-      <c r="K201" s="12"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="12"/>
+      <c r="K201" s="11"/>
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G202" s="12"/>
-      <c r="H202" s="13"/>
-      <c r="K202" s="12"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="12"/>
+      <c r="K202" s="11"/>
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G203" s="12"/>
-      <c r="H203" s="13"/>
-      <c r="K203" s="12"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="12"/>
+      <c r="K203" s="11"/>
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G204" s="12"/>
-      <c r="H204" s="13"/>
-      <c r="K204" s="12"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="12"/>
+      <c r="K204" s="11"/>
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G205" s="12"/>
-      <c r="H205" s="13"/>
-      <c r="K205" s="12"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="12"/>
+      <c r="K205" s="11"/>
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G206" s="12"/>
-      <c r="H206" s="13"/>
-      <c r="K206" s="12"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="12"/>
+      <c r="K206" s="11"/>
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G207" s="12"/>
-      <c r="H207" s="13"/>
-      <c r="K207" s="12"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="12"/>
+      <c r="K207" s="11"/>
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G208" s="12"/>
-      <c r="H208" s="13"/>
-      <c r="K208" s="12"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="12"/>
+      <c r="K208" s="11"/>
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G209" s="12"/>
-      <c r="H209" s="13"/>
-      <c r="K209" s="12"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="12"/>
+      <c r="K209" s="11"/>
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G210" s="12"/>
-      <c r="H210" s="13"/>
-      <c r="K210" s="12"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="12"/>
+      <c r="K210" s="11"/>
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G211" s="12"/>
-      <c r="H211" s="13"/>
-      <c r="K211" s="12"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="12"/>
+      <c r="K211" s="11"/>
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G212" s="12"/>
-      <c r="H212" s="13"/>
-      <c r="K212" s="12"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="12"/>
+      <c r="K212" s="11"/>
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G213" s="12"/>
-      <c r="H213" s="13"/>
-      <c r="K213" s="12"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="12"/>
+      <c r="K213" s="11"/>
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G214" s="12"/>
-      <c r="H214" s="13"/>
-      <c r="K214" s="12"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="12"/>
+      <c r="K214" s="11"/>
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G215" s="12"/>
-      <c r="H215" s="13"/>
-      <c r="K215" s="12"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="12"/>
+      <c r="K215" s="11"/>
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G216" s="12"/>
-      <c r="H216" s="13"/>
-      <c r="K216" s="12"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="12"/>
+      <c r="K216" s="11"/>
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G217" s="12"/>
-      <c r="H217" s="13"/>
-      <c r="K217" s="12"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="12"/>
+      <c r="K217" s="11"/>
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G218" s="12"/>
-      <c r="H218" s="13"/>
-      <c r="K218" s="12"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="12"/>
+      <c r="K218" s="11"/>
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G219" s="12"/>
-      <c r="H219" s="13"/>
-      <c r="K219" s="12"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="12"/>
+      <c r="K219" s="11"/>
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G220" s="12"/>
-      <c r="H220" s="13"/>
-      <c r="K220" s="12"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="12"/>
+      <c r="K220" s="11"/>
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G221" s="12"/>
-      <c r="H221" s="13"/>
-      <c r="K221" s="12"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="12"/>
+      <c r="K221" s="11"/>
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G222" s="12"/>
-      <c r="H222" s="13"/>
-      <c r="K222" s="12"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="12"/>
+      <c r="K222" s="11"/>
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G223" s="12"/>
-      <c r="H223" s="13"/>
-      <c r="K223" s="12"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="12"/>
+      <c r="K223" s="11"/>
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G224" s="12"/>
-      <c r="H224" s="13"/>
-      <c r="K224" s="12"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="12"/>
+      <c r="K224" s="11"/>
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G225" s="12"/>
-      <c r="H225" s="13"/>
-      <c r="K225" s="12"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="12"/>
+      <c r="K225" s="11"/>
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G226" s="12"/>
-      <c r="H226" s="13"/>
-      <c r="K226" s="12"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="12"/>
+      <c r="K226" s="11"/>
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G227" s="12"/>
-      <c r="H227" s="13"/>
-      <c r="K227" s="12"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="12"/>
+      <c r="K227" s="11"/>
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G228" s="12"/>
-      <c r="H228" s="13"/>
-      <c r="K228" s="12"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="12"/>
+      <c r="K228" s="11"/>
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G229" s="12"/>
-      <c r="H229" s="13"/>
-      <c r="K229" s="12"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="12"/>
+      <c r="K229" s="11"/>
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G230" s="12"/>
-      <c r="H230" s="13"/>
-      <c r="K230" s="12"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="12"/>
+      <c r="K230" s="11"/>
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G231" s="12"/>
-      <c r="H231" s="13"/>
-      <c r="K231" s="12"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="12"/>
+      <c r="K231" s="11"/>
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G232" s="12"/>
-      <c r="H232" s="13"/>
-      <c r="K232" s="12"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="12"/>
+      <c r="K232" s="11"/>
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G233" s="12"/>
-      <c r="H233" s="13"/>
-      <c r="K233" s="12"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="12"/>
+      <c r="K233" s="11"/>
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G234" s="12"/>
-      <c r="H234" s="13"/>
-      <c r="K234" s="12"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="12"/>
+      <c r="K234" s="11"/>
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G235" s="12"/>
-      <c r="H235" s="13"/>
-      <c r="K235" s="12"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="12"/>
+      <c r="K235" s="11"/>
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G236" s="12"/>
-      <c r="H236" s="13"/>
-      <c r="K236" s="12"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="12"/>
+      <c r="K236" s="11"/>
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G237" s="12"/>
-      <c r="H237" s="13"/>
-      <c r="K237" s="12"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="12"/>
+      <c r="K237" s="11"/>
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G238" s="12"/>
-      <c r="H238" s="13"/>
-      <c r="K238" s="12"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="12"/>
+      <c r="K238" s="11"/>
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G239" s="12"/>
-      <c r="H239" s="13"/>
-      <c r="K239" s="12"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="12"/>
+      <c r="K239" s="11"/>
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G240" s="12"/>
-      <c r="H240" s="13"/>
-      <c r="K240" s="12"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="12"/>
+      <c r="K240" s="11"/>
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G241" s="12"/>
-      <c r="H241" s="13"/>
-      <c r="K241" s="12"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="12"/>
+      <c r="K241" s="11"/>
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G242" s="12"/>
-      <c r="H242" s="13"/>
-      <c r="K242" s="12"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="12"/>
+      <c r="K242" s="11"/>
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G243" s="12"/>
-      <c r="H243" s="13"/>
-      <c r="K243" s="12"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="12"/>
+      <c r="K243" s="11"/>
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G244" s="12"/>
-      <c r="H244" s="13"/>
-      <c r="K244" s="12"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="12"/>
+      <c r="K244" s="11"/>
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G245" s="12"/>
-      <c r="H245" s="13"/>
-      <c r="K245" s="12"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="12"/>
+      <c r="K245" s="11"/>
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G246" s="12"/>
-      <c r="H246" s="13"/>
-      <c r="K246" s="12"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="12"/>
+      <c r="K246" s="11"/>
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G247" s="12"/>
-      <c r="H247" s="13"/>
-      <c r="K247" s="12"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="12"/>
+      <c r="K247" s="11"/>
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G248" s="12"/>
-      <c r="H248" s="13"/>
-      <c r="K248" s="12"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="12"/>
+      <c r="K248" s="11"/>
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G249" s="12"/>
-      <c r="H249" s="13"/>
-      <c r="K249" s="12"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="12"/>
+      <c r="K249" s="11"/>
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G250" s="12"/>
-      <c r="H250" s="13"/>
-      <c r="K250" s="12"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="12"/>
+      <c r="K250" s="11"/>
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G251" s="12"/>
-      <c r="H251" s="13"/>
-      <c r="K251" s="12"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="12"/>
+      <c r="K251" s="11"/>
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G252" s="12"/>
-      <c r="H252" s="13"/>
-      <c r="K252" s="12"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="12"/>
+      <c r="K252" s="11"/>
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G253" s="12"/>
-      <c r="H253" s="13"/>
-      <c r="K253" s="12"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="12"/>
+      <c r="K253" s="11"/>
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G254" s="12"/>
-      <c r="H254" s="13"/>
-      <c r="K254" s="12"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="12"/>
+      <c r="K254" s="11"/>
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G255" s="12"/>
-      <c r="H255" s="13"/>
-      <c r="K255" s="12"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="12"/>
+      <c r="K255" s="11"/>
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G256" s="12"/>
-      <c r="H256" s="13"/>
-      <c r="K256" s="12"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="12"/>
+      <c r="K256" s="11"/>
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G257" s="12"/>
-      <c r="H257" s="13"/>
-      <c r="K257" s="12"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="12"/>
+      <c r="K257" s="11"/>
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G258" s="12"/>
-      <c r="H258" s="13"/>
-      <c r="K258" s="12"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="12"/>
+      <c r="K258" s="11"/>
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G259" s="12"/>
-      <c r="H259" s="13"/>
-      <c r="K259" s="12"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="12"/>
+      <c r="K259" s="11"/>
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G260" s="12"/>
-      <c r="H260" s="13"/>
-      <c r="K260" s="12"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="12"/>
+      <c r="K260" s="11"/>
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G261" s="12"/>
-      <c r="H261" s="13"/>
-      <c r="K261" s="12"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="12"/>
+      <c r="K261" s="11"/>
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G262" s="12"/>
-      <c r="H262" s="13"/>
-      <c r="K262" s="12"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="12"/>
+      <c r="K262" s="11"/>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G263" s="12"/>
-      <c r="H263" s="13"/>
-      <c r="K263" s="12"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="12"/>
+      <c r="K263" s="11"/>
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G264" s="12"/>
-      <c r="H264" s="13"/>
-      <c r="K264" s="12"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="12"/>
+      <c r="K264" s="11"/>
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G265" s="12"/>
-      <c r="H265" s="13"/>
-      <c r="K265" s="12"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="12"/>
+      <c r="K265" s="11"/>
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G266" s="12"/>
-      <c r="H266" s="13"/>
-      <c r="K266" s="12"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="12"/>
+      <c r="K266" s="11"/>
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G267" s="12"/>
-      <c r="H267" s="13"/>
-      <c r="K267" s="12"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="12"/>
+      <c r="K267" s="11"/>
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G268" s="12"/>
-      <c r="H268" s="13"/>
-      <c r="K268" s="12"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="12"/>
+      <c r="K268" s="11"/>
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G269" s="12"/>
-      <c r="H269" s="13"/>
-      <c r="K269" s="12"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="12"/>
+      <c r="K269" s="11"/>
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G270" s="12"/>
-      <c r="H270" s="13"/>
-      <c r="K270" s="12"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="12"/>
+      <c r="K270" s="11"/>
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G271" s="12"/>
-      <c r="H271" s="13"/>
-      <c r="K271" s="12"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="12"/>
+      <c r="K271" s="11"/>
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G272" s="12"/>
-      <c r="H272" s="13"/>
-      <c r="K272" s="12"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="12"/>
+      <c r="K272" s="11"/>
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G273" s="12"/>
-      <c r="H273" s="13"/>
-      <c r="K273" s="12"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="12"/>
+      <c r="K273" s="11"/>
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G274" s="12"/>
-      <c r="H274" s="13"/>
-      <c r="K274" s="12"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="12"/>
+      <c r="K274" s="11"/>
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G275" s="12"/>
-      <c r="H275" s="13"/>
-      <c r="K275" s="12"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="12"/>
+      <c r="K275" s="11"/>
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G276" s="12"/>
-      <c r="H276" s="13"/>
-      <c r="K276" s="12"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="12"/>
+      <c r="K276" s="11"/>
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G277" s="12"/>
-      <c r="H277" s="13"/>
-      <c r="K277" s="12"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="12"/>
+      <c r="K277" s="11"/>
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G278" s="12"/>
-      <c r="H278" s="13"/>
-      <c r="K278" s="12"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="12"/>
+      <c r="K278" s="11"/>
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G279" s="12"/>
-      <c r="H279" s="13"/>
-      <c r="K279" s="12"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="12"/>
+      <c r="K279" s="11"/>
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G280" s="12"/>
-      <c r="H280" s="13"/>
-      <c r="K280" s="12"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="12"/>
+      <c r="K280" s="11"/>
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G281" s="12"/>
-      <c r="H281" s="13"/>
-      <c r="K281" s="12"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="12"/>
+      <c r="K281" s="11"/>
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G282" s="12"/>
-      <c r="H282" s="13"/>
-      <c r="K282" s="12"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="12"/>
+      <c r="K282" s="11"/>
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G283" s="12"/>
-      <c r="H283" s="13"/>
-      <c r="K283" s="12"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="12"/>
+      <c r="K283" s="11"/>
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G284" s="12"/>
-      <c r="H284" s="13"/>
-      <c r="K284" s="12"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="12"/>
+      <c r="K284" s="11"/>
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G285" s="12"/>
-      <c r="H285" s="13"/>
-      <c r="K285" s="12"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="12"/>
+      <c r="K285" s="11"/>
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G286" s="12"/>
-      <c r="H286" s="13"/>
-      <c r="K286" s="12"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="12"/>
+      <c r="K286" s="11"/>
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G287" s="12"/>
-      <c r="H287" s="13"/>
-      <c r="K287" s="12"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="12"/>
+      <c r="K287" s="11"/>
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G288" s="12"/>
-      <c r="H288" s="13"/>
-      <c r="K288" s="12"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="12"/>
+      <c r="K288" s="11"/>
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G289" s="12"/>
-      <c r="H289" s="13"/>
-      <c r="K289" s="12"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="12"/>
+      <c r="K289" s="11"/>
     </row>
     <row r="290" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G290" s="12"/>
-      <c r="H290" s="13"/>
-      <c r="K290" s="12"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="12"/>
+      <c r="K290" s="11"/>
     </row>
     <row r="291" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G291" s="12"/>
-      <c r="H291" s="13"/>
-      <c r="K291" s="12"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="12"/>
+      <c r="K291" s="11"/>
     </row>
     <row r="292" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G292" s="12"/>
-      <c r="H292" s="13"/>
-      <c r="K292" s="12"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="12"/>
+      <c r="K292" s="11"/>
     </row>
     <row r="293" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G293" s="12"/>
-      <c r="H293" s="13"/>
-      <c r="K293" s="12"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="12"/>
+      <c r="K293" s="11"/>
     </row>
     <row r="294" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G294" s="12"/>
-      <c r="H294" s="13"/>
-      <c r="K294" s="12"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="12"/>
+      <c r="K294" s="11"/>
     </row>
     <row r="295" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G295" s="12"/>
-      <c r="H295" s="13"/>
-      <c r="K295" s="12"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="12"/>
+      <c r="K295" s="11"/>
     </row>
     <row r="296" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G296" s="12"/>
-      <c r="H296" s="13"/>
-      <c r="K296" s="12"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="12"/>
+      <c r="K296" s="11"/>
     </row>
     <row r="297" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G297" s="12"/>
-      <c r="H297" s="13"/>
-      <c r="K297" s="12"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="12"/>
+      <c r="K297" s="11"/>
     </row>
     <row r="298" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G298" s="12"/>
-      <c r="H298" s="13"/>
-      <c r="K298" s="12"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="12"/>
+      <c r="K298" s="11"/>
     </row>
     <row r="299" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G299" s="12"/>
-      <c r="H299" s="13"/>
-      <c r="K299" s="12"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="12"/>
+      <c r="K299" s="11"/>
     </row>
     <row r="300" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G300" s="12"/>
-      <c r="H300" s="13"/>
-      <c r="K300" s="12"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="12"/>
+      <c r="K300" s="11"/>
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G301" s="12"/>
-      <c r="H301" s="13"/>
-      <c r="K301" s="12"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="12"/>
+      <c r="K301" s="11"/>
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G302" s="12"/>
-      <c r="H302" s="13"/>
-      <c r="K302" s="12"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="12"/>
+      <c r="K302" s="11"/>
     </row>
     <row r="303" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G303" s="12"/>
-      <c r="H303" s="13"/>
-      <c r="K303" s="12"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="12"/>
+      <c r="K303" s="11"/>
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G304" s="12"/>
-      <c r="H304" s="13"/>
-      <c r="K304" s="12"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="12"/>
+      <c r="K304" s="11"/>
     </row>
     <row r="305" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G305" s="12"/>
-      <c r="H305" s="13"/>
-      <c r="K305" s="12"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="12"/>
+      <c r="K305" s="11"/>
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G306" s="12"/>
-      <c r="H306" s="13"/>
-      <c r="K306" s="12"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="12"/>
+      <c r="K306" s="11"/>
     </row>
     <row r="307" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G307" s="12"/>
-      <c r="H307" s="13"/>
-      <c r="K307" s="12"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="12"/>
+      <c r="K307" s="11"/>
     </row>
     <row r="308" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G308" s="12"/>
-      <c r="H308" s="13"/>
-      <c r="K308" s="12"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="12"/>
+      <c r="K308" s="11"/>
     </row>
     <row r="309" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G309" s="12"/>
-      <c r="H309" s="13"/>
-      <c r="K309" s="12"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="12"/>
+      <c r="K309" s="11"/>
     </row>
     <row r="310" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G310" s="12"/>
-      <c r="H310" s="13"/>
-      <c r="K310" s="12"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="12"/>
+      <c r="K310" s="11"/>
     </row>
     <row r="311" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G311" s="12"/>
-      <c r="H311" s="13"/>
-      <c r="K311" s="12"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="12"/>
+      <c r="K311" s="11"/>
     </row>
     <row r="312" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G312" s="12"/>
-      <c r="H312" s="13"/>
-      <c r="K312" s="12"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="12"/>
+      <c r="K312" s="11"/>
     </row>
     <row r="313" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G313" s="12"/>
-      <c r="H313" s="13"/>
-      <c r="K313" s="12"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="12"/>
+      <c r="K313" s="11"/>
     </row>
     <row r="314" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G314" s="12"/>
-      <c r="H314" s="13"/>
-      <c r="K314" s="12"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="12"/>
+      <c r="K314" s="11"/>
     </row>
     <row r="315" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G315" s="12"/>
-      <c r="H315" s="13"/>
-      <c r="K315" s="12"/>
+      <c r="G315" s="11"/>
+      <c r="H315" s="12"/>
+      <c r="K315" s="11"/>
     </row>
     <row r="316" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G316" s="12"/>
-      <c r="H316" s="13"/>
-      <c r="K316" s="12"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="12"/>
+      <c r="K316" s="11"/>
     </row>
     <row r="317" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G317" s="12"/>
-      <c r="H317" s="13"/>
-      <c r="K317" s="12"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="12"/>
+      <c r="K317" s="11"/>
     </row>
     <row r="318" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G318" s="12"/>
-      <c r="H318" s="13"/>
-      <c r="K318" s="12"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="12"/>
+      <c r="K318" s="11"/>
     </row>
     <row r="319" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G319" s="12"/>
-      <c r="H319" s="13"/>
-      <c r="K319" s="12"/>
+      <c r="G319" s="11"/>
+      <c r="H319" s="12"/>
+      <c r="K319" s="11"/>
     </row>
     <row r="320" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G320" s="12"/>
-      <c r="H320" s="13"/>
-      <c r="K320" s="12"/>
+      <c r="G320" s="11"/>
+      <c r="H320" s="12"/>
+      <c r="K320" s="11"/>
     </row>
     <row r="321" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G321" s="12"/>
-      <c r="H321" s="13"/>
-      <c r="K321" s="12"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="12"/>
+      <c r="K321" s="11"/>
     </row>
     <row r="322" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G322" s="12"/>
-      <c r="H322" s="13"/>
-      <c r="K322" s="12"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="12"/>
+      <c r="K322" s="11"/>
     </row>
     <row r="323" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G323" s="12"/>
-      <c r="H323" s="13"/>
-      <c r="K323" s="12"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="12"/>
+      <c r="K323" s="11"/>
     </row>
     <row r="324" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G324" s="12"/>
-      <c r="H324" s="13"/>
-      <c r="K324" s="12"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="12"/>
+      <c r="K324" s="11"/>
     </row>
     <row r="325" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G325" s="12"/>
-      <c r="H325" s="13"/>
-      <c r="K325" s="12"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="12"/>
+      <c r="K325" s="11"/>
     </row>
     <row r="326" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G326" s="12"/>
-      <c r="H326" s="13"/>
-      <c r="K326" s="12"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="12"/>
+      <c r="K326" s="11"/>
     </row>
     <row r="327" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G327" s="12"/>
-      <c r="H327" s="13"/>
-      <c r="K327" s="12"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="12"/>
+      <c r="K327" s="11"/>
     </row>
     <row r="328" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G328" s="12"/>
-      <c r="H328" s="13"/>
-      <c r="K328" s="12"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="12"/>
+      <c r="K328" s="11"/>
     </row>
     <row r="329" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G329" s="12"/>
-      <c r="H329" s="13"/>
-      <c r="K329" s="12"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="12"/>
+      <c r="K329" s="11"/>
     </row>
     <row r="330" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G330" s="12"/>
-      <c r="H330" s="13"/>
-      <c r="K330" s="12"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="12"/>
+      <c r="K330" s="11"/>
     </row>
     <row r="331" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G331" s="12"/>
-      <c r="H331" s="13"/>
-      <c r="K331" s="12"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="12"/>
+      <c r="K331" s="11"/>
     </row>
     <row r="332" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G332" s="12"/>
-      <c r="H332" s="13"/>
-      <c r="K332" s="12"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="12"/>
+      <c r="K332" s="11"/>
     </row>
     <row r="333" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G333" s="12"/>
-      <c r="H333" s="13"/>
-      <c r="K333" s="12"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="12"/>
+      <c r="K333" s="11"/>
     </row>
     <row r="334" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G334" s="12"/>
-      <c r="H334" s="13"/>
-      <c r="K334" s="12"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="12"/>
+      <c r="K334" s="11"/>
     </row>
     <row r="335" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G335" s="12"/>
-      <c r="H335" s="13"/>
-      <c r="K335" s="12"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="12"/>
+      <c r="K335" s="11"/>
     </row>
     <row r="336" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G336" s="12"/>
-      <c r="H336" s="13"/>
-      <c r="K336" s="12"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="12"/>
+      <c r="K336" s="11"/>
     </row>
     <row r="337" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G337" s="12"/>
-      <c r="H337" s="13"/>
-      <c r="K337" s="12"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="12"/>
+      <c r="K337" s="11"/>
     </row>
     <row r="338" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G338" s="12"/>
-      <c r="H338" s="13"/>
-      <c r="K338" s="12"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="12"/>
+      <c r="K338" s="11"/>
     </row>
     <row r="339" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G339" s="12"/>
-      <c r="H339" s="13"/>
-      <c r="K339" s="12"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="12"/>
+      <c r="K339" s="11"/>
     </row>
     <row r="340" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G340" s="12"/>
-      <c r="H340" s="13"/>
-      <c r="K340" s="12"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="12"/>
+      <c r="K340" s="11"/>
     </row>
     <row r="341" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G341" s="12"/>
-      <c r="H341" s="13"/>
-      <c r="K341" s="12"/>
+      <c r="G341" s="11"/>
+      <c r="H341" s="12"/>
+      <c r="K341" s="11"/>
     </row>
     <row r="342" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G342" s="12"/>
-      <c r="H342" s="13"/>
-      <c r="K342" s="12"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="12"/>
+      <c r="K342" s="11"/>
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G343" s="12"/>
-      <c r="H343" s="13"/>
-      <c r="K343" s="12"/>
+      <c r="G343" s="11"/>
+      <c r="H343" s="12"/>
+      <c r="K343" s="11"/>
     </row>
     <row r="344" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G344" s="12"/>
-      <c r="H344" s="13"/>
-      <c r="K344" s="12"/>
+      <c r="G344" s="11"/>
+      <c r="H344" s="12"/>
+      <c r="K344" s="11"/>
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G345" s="12"/>
-      <c r="H345" s="13"/>
-      <c r="K345" s="12"/>
+      <c r="G345" s="11"/>
+      <c r="H345" s="12"/>
+      <c r="K345" s="11"/>
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G346" s="12"/>
-      <c r="H346" s="13"/>
-      <c r="K346" s="12"/>
+      <c r="G346" s="11"/>
+      <c r="H346" s="12"/>
+      <c r="K346" s="11"/>
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G347" s="12"/>
-      <c r="H347" s="13"/>
-      <c r="K347" s="12"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="12"/>
+      <c r="K347" s="11"/>
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G348" s="12"/>
-      <c r="H348" s="13"/>
-      <c r="K348" s="12"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="12"/>
+      <c r="K348" s="11"/>
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G349" s="12"/>
-      <c r="H349" s="13"/>
-      <c r="K349" s="12"/>
+      <c r="G349" s="11"/>
+      <c r="H349" s="12"/>
+      <c r="K349" s="11"/>
     </row>
     <row r="350" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G350" s="12"/>
-      <c r="H350" s="13"/>
-      <c r="K350" s="12"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="12"/>
+      <c r="K350" s="11"/>
     </row>
     <row r="351" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G351" s="12"/>
-      <c r="H351" s="13"/>
-      <c r="K351" s="12"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="12"/>
+      <c r="K351" s="11"/>
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G352" s="12"/>
-      <c r="H352" s="13"/>
-      <c r="K352" s="12"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="12"/>
+      <c r="K352" s="11"/>
     </row>
     <row r="353" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G353" s="12"/>
-      <c r="H353" s="13"/>
-      <c r="K353" s="12"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="12"/>
+      <c r="K353" s="11"/>
     </row>
     <row r="354" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G354" s="12"/>
-      <c r="H354" s="13"/>
-      <c r="K354" s="12"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="12"/>
+      <c r="K354" s="11"/>
     </row>
     <row r="355" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G355" s="12"/>
-      <c r="H355" s="13"/>
-      <c r="K355" s="12"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="12"/>
+      <c r="K355" s="11"/>
     </row>
     <row r="356" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G356" s="12"/>
-      <c r="H356" s="13"/>
-      <c r="K356" s="12"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="12"/>
+      <c r="K356" s="11"/>
     </row>
     <row r="357" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G357" s="12"/>
-      <c r="H357" s="13"/>
-      <c r="K357" s="12"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="12"/>
+      <c r="K357" s="11"/>
     </row>
     <row r="358" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G358" s="12"/>
-      <c r="H358" s="13"/>
-      <c r="K358" s="12"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="12"/>
+      <c r="K358" s="11"/>
     </row>
     <row r="359" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G359" s="12"/>
-      <c r="H359" s="13"/>
-      <c r="K359" s="12"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="12"/>
+      <c r="K359" s="11"/>
     </row>
     <row r="360" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G360" s="12"/>
-      <c r="H360" s="13"/>
-      <c r="K360" s="12"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="12"/>
+      <c r="K360" s="11"/>
     </row>
     <row r="361" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G361" s="12"/>
-      <c r="H361" s="13"/>
-      <c r="K361" s="12"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="12"/>
+      <c r="K361" s="11"/>
     </row>
     <row r="362" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G362" s="12"/>
-      <c r="H362" s="13"/>
-      <c r="K362" s="12"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="12"/>
+      <c r="K362" s="11"/>
     </row>
     <row r="363" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G363" s="12"/>
-      <c r="H363" s="13"/>
-      <c r="K363" s="12"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="12"/>
+      <c r="K363" s="11"/>
     </row>
     <row r="364" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G364" s="12"/>
-      <c r="H364" s="13"/>
-      <c r="K364" s="12"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="12"/>
+      <c r="K364" s="11"/>
     </row>
     <row r="365" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G365" s="12"/>
-      <c r="H365" s="13"/>
-      <c r="K365" s="12"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="12"/>
+      <c r="K365" s="11"/>
     </row>
     <row r="366" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G366" s="12"/>
-      <c r="H366" s="13"/>
-      <c r="K366" s="12"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="12"/>
+      <c r="K366" s="11"/>
     </row>
     <row r="367" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G367" s="12"/>
-      <c r="H367" s="13"/>
-      <c r="K367" s="12"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="12"/>
+      <c r="K367" s="11"/>
     </row>
     <row r="368" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G368" s="12"/>
-      <c r="H368" s="13"/>
-      <c r="K368" s="12"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="12"/>
+      <c r="K368" s="11"/>
     </row>
     <row r="369" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G369" s="12"/>
-      <c r="H369" s="13"/>
-      <c r="K369" s="12"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="12"/>
+      <c r="K369" s="11"/>
     </row>
     <row r="370" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G370" s="12"/>
-      <c r="H370" s="13"/>
-      <c r="K370" s="12"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="12"/>
+      <c r="K370" s="11"/>
     </row>
     <row r="371" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G371" s="12"/>
-      <c r="H371" s="13"/>
-      <c r="K371" s="12"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="12"/>
+      <c r="K371" s="11"/>
     </row>
     <row r="372" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G372" s="12"/>
-      <c r="H372" s="13"/>
-      <c r="K372" s="12"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="12"/>
+      <c r="K372" s="11"/>
     </row>
     <row r="373" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G373" s="12"/>
-      <c r="H373" s="13"/>
-      <c r="K373" s="12"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="12"/>
+      <c r="K373" s="11"/>
     </row>
     <row r="374" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G374" s="12"/>
-      <c r="H374" s="13"/>
-      <c r="K374" s="12"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="12"/>
+      <c r="K374" s="11"/>
     </row>
     <row r="375" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G375" s="12"/>
-      <c r="H375" s="13"/>
-      <c r="K375" s="12"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="12"/>
+      <c r="K375" s="11"/>
     </row>
     <row r="376" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G376" s="12"/>
-      <c r="H376" s="13"/>
-      <c r="K376" s="12"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="12"/>
+      <c r="K376" s="11"/>
     </row>
     <row r="377" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G377" s="12"/>
-      <c r="H377" s="13"/>
-      <c r="K377" s="12"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="12"/>
+      <c r="K377" s="11"/>
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G378" s="12"/>
-      <c r="H378" s="13"/>
-      <c r="K378" s="12"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="12"/>
+      <c r="K378" s="11"/>
     </row>
     <row r="379" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G379" s="12"/>
-      <c r="H379" s="13"/>
-      <c r="K379" s="12"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="12"/>
+      <c r="K379" s="11"/>
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G380" s="12"/>
-      <c r="H380" s="13"/>
-      <c r="K380" s="12"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="12"/>
+      <c r="K380" s="11"/>
     </row>
     <row r="381" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G381" s="12"/>
-      <c r="H381" s="13"/>
-      <c r="K381" s="12"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="12"/>
+      <c r="K381" s="11"/>
     </row>
     <row r="382" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G382" s="12"/>
-      <c r="H382" s="13"/>
-      <c r="K382" s="12"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="12"/>
+      <c r="K382" s="11"/>
     </row>
     <row r="383" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G383" s="12"/>
-      <c r="H383" s="13"/>
-      <c r="K383" s="12"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="12"/>
+      <c r="K383" s="11"/>
     </row>
     <row r="384" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G384" s="12"/>
-      <c r="H384" s="13"/>
-      <c r="K384" s="12"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="12"/>
+      <c r="K384" s="11"/>
     </row>
     <row r="385" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G385" s="12"/>
-      <c r="H385" s="13"/>
-      <c r="K385" s="12"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="12"/>
+      <c r="K385" s="11"/>
     </row>
     <row r="386" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G386" s="12"/>
-      <c r="H386" s="13"/>
-      <c r="K386" s="12"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="12"/>
+      <c r="K386" s="11"/>
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G387" s="12"/>
-      <c r="H387" s="13"/>
-      <c r="K387" s="12"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="12"/>
+      <c r="K387" s="11"/>
     </row>
     <row r="388" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G388" s="12"/>
-      <c r="H388" s="13"/>
-      <c r="K388" s="12"/>
+      <c r="G388" s="11"/>
+      <c r="H388" s="12"/>
+      <c r="K388" s="11"/>
     </row>
     <row r="389" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G389" s="12"/>
-      <c r="H389" s="13"/>
-      <c r="K389" s="12"/>
+      <c r="G389" s="11"/>
+      <c r="H389" s="12"/>
+      <c r="K389" s="11"/>
     </row>
     <row r="390" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G390" s="12"/>
-      <c r="H390" s="13"/>
-      <c r="K390" s="12"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="12"/>
+      <c r="K390" s="11"/>
     </row>
     <row r="391" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G391" s="12"/>
-      <c r="H391" s="13"/>
-      <c r="K391" s="12"/>
+      <c r="G391" s="11"/>
+      <c r="H391" s="12"/>
+      <c r="K391" s="11"/>
     </row>
     <row r="392" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G392" s="12"/>
-      <c r="H392" s="13"/>
-      <c r="K392" s="12"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="12"/>
+      <c r="K392" s="11"/>
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G393" s="12"/>
-      <c r="H393" s="13"/>
-      <c r="K393" s="12"/>
+      <c r="G393" s="11"/>
+      <c r="H393" s="12"/>
+      <c r="K393" s="11"/>
     </row>
     <row r="394" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G394" s="12"/>
-      <c r="H394" s="13"/>
-      <c r="K394" s="12"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="12"/>
+      <c r="K394" s="11"/>
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G395" s="12"/>
-      <c r="H395" s="13"/>
-      <c r="K395" s="12"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="12"/>
+      <c r="K395" s="11"/>
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G396" s="12"/>
-      <c r="H396" s="13"/>
-      <c r="K396" s="12"/>
+      <c r="G396" s="11"/>
+      <c r="H396" s="12"/>
+      <c r="K396" s="11"/>
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G397" s="12"/>
-      <c r="H397" s="13"/>
-      <c r="K397" s="12"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="12"/>
+      <c r="K397" s="11"/>
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G398" s="12"/>
-      <c r="H398" s="13"/>
-      <c r="K398" s="12"/>
+      <c r="G398" s="11"/>
+      <c r="H398" s="12"/>
+      <c r="K398" s="11"/>
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G399" s="12"/>
-      <c r="H399" s="13"/>
-      <c r="K399" s="12"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="12"/>
+      <c r="K399" s="11"/>
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G400" s="12"/>
-      <c r="H400" s="13"/>
-      <c r="K400" s="12"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="12"/>
+      <c r="K400" s="11"/>
     </row>
     <row r="401" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G401" s="12"/>
-      <c r="H401" s="13"/>
-      <c r="K401" s="12"/>
+      <c r="G401" s="11"/>
+      <c r="H401" s="12"/>
+      <c r="K401" s="11"/>
     </row>
     <row r="402" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G402" s="12"/>
-      <c r="H402" s="13"/>
-      <c r="K402" s="12"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="12"/>
+      <c r="K402" s="11"/>
     </row>
     <row r="403" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G403" s="12"/>
-      <c r="H403" s="13"/>
-      <c r="K403" s="12"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="12"/>
+      <c r="K403" s="11"/>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G404" s="12"/>
-      <c r="H404" s="13"/>
-      <c r="K404" s="12"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="12"/>
+      <c r="K404" s="11"/>
     </row>
     <row r="405" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G405" s="12"/>
-      <c r="H405" s="13"/>
-      <c r="K405" s="12"/>
+      <c r="G405" s="11"/>
+      <c r="H405" s="12"/>
+      <c r="K405" s="11"/>
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G406" s="12"/>
-      <c r="H406" s="13"/>
-      <c r="K406" s="12"/>
+      <c r="G406" s="11"/>
+      <c r="H406" s="12"/>
+      <c r="K406" s="11"/>
     </row>
     <row r="407" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G407" s="12"/>
-      <c r="H407" s="13"/>
-      <c r="K407" s="12"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="12"/>
+      <c r="K407" s="11"/>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G408" s="12"/>
-      <c r="H408" s="13"/>
-      <c r="K408" s="12"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="12"/>
+      <c r="K408" s="11"/>
     </row>
     <row r="409" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G409" s="12"/>
-      <c r="H409" s="13"/>
-      <c r="K409" s="12"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="12"/>
+      <c r="K409" s="11"/>
     </row>
     <row r="410" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G410" s="12"/>
-      <c r="H410" s="13"/>
-      <c r="K410" s="12"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="12"/>
+      <c r="K410" s="11"/>
     </row>
     <row r="411" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G411" s="12"/>
-      <c r="H411" s="13"/>
-      <c r="K411" s="12"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="12"/>
+      <c r="K411" s="11"/>
     </row>
     <row r="412" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G412" s="12"/>
-      <c r="H412" s="13"/>
-      <c r="K412" s="12"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="12"/>
+      <c r="K412" s="11"/>
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G413" s="12"/>
-      <c r="H413" s="13"/>
-      <c r="K413" s="12"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="12"/>
+      <c r="K413" s="11"/>
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G414" s="12"/>
-      <c r="H414" s="13"/>
-      <c r="K414" s="12"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="12"/>
+      <c r="K414" s="11"/>
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G415" s="12"/>
-      <c r="H415" s="13"/>
-      <c r="K415" s="12"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="12"/>
+      <c r="K415" s="11"/>
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G416" s="12"/>
-      <c r="H416" s="13"/>
-      <c r="K416" s="12"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="12"/>
+      <c r="K416" s="11"/>
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G417" s="12"/>
-      <c r="H417" s="13"/>
-      <c r="K417" s="12"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="12"/>
+      <c r="K417" s="11"/>
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G418" s="12"/>
-      <c r="H418" s="13"/>
-      <c r="K418" s="12"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="12"/>
+      <c r="K418" s="11"/>
     </row>
     <row r="419" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G419" s="12"/>
-      <c r="H419" s="13"/>
-      <c r="K419" s="12"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="12"/>
+      <c r="K419" s="11"/>
     </row>
     <row r="420" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G420" s="12"/>
-      <c r="H420" s="13"/>
-      <c r="K420" s="12"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="12"/>
+      <c r="K420" s="11"/>
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G421" s="12"/>
-      <c r="H421" s="13"/>
-      <c r="K421" s="12"/>
+      <c r="G421" s="11"/>
+      <c r="H421" s="12"/>
+      <c r="K421" s="11"/>
     </row>
     <row r="422" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G422" s="12"/>
-      <c r="H422" s="13"/>
-      <c r="K422" s="12"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="12"/>
+      <c r="K422" s="11"/>
     </row>
     <row r="423" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G423" s="12"/>
-      <c r="H423" s="13"/>
-      <c r="K423" s="12"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="12"/>
+      <c r="K423" s="11"/>
     </row>
     <row r="424" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G424" s="12"/>
-      <c r="H424" s="13"/>
-      <c r="K424" s="12"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="12"/>
+      <c r="K424" s="11"/>
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G425" s="12"/>
-      <c r="H425" s="13"/>
-      <c r="K425" s="12"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="12"/>
+      <c r="K425" s="11"/>
     </row>
     <row r="426" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G426" s="12"/>
-      <c r="H426" s="13"/>
-      <c r="K426" s="12"/>
+      <c r="G426" s="11"/>
+      <c r="H426" s="12"/>
+      <c r="K426" s="11"/>
     </row>
     <row r="427" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G427" s="12"/>
-      <c r="H427" s="13"/>
-      <c r="K427" s="12"/>
+      <c r="G427" s="11"/>
+      <c r="H427" s="12"/>
+      <c r="K427" s="11"/>
     </row>
     <row r="428" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G428" s="12"/>
-      <c r="H428" s="13"/>
-      <c r="K428" s="12"/>
+      <c r="G428" s="11"/>
+      <c r="H428" s="12"/>
+      <c r="K428" s="11"/>
     </row>
     <row r="429" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G429" s="12"/>
-      <c r="H429" s="13"/>
-      <c r="K429" s="12"/>
+      <c r="G429" s="11"/>
+      <c r="H429" s="12"/>
+      <c r="K429" s="11"/>
     </row>
     <row r="430" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G430" s="12"/>
-      <c r="H430" s="13"/>
-      <c r="K430" s="12"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="12"/>
+      <c r="K430" s="11"/>
     </row>
     <row r="431" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G431" s="12"/>
-      <c r="H431" s="13"/>
-      <c r="K431" s="12"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="12"/>
+      <c r="K431" s="11"/>
     </row>
     <row r="432" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G432" s="12"/>
-      <c r="H432" s="13"/>
-      <c r="K432" s="12"/>
+      <c r="G432" s="11"/>
+      <c r="H432" s="12"/>
+      <c r="K432" s="11"/>
     </row>
     <row r="433" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G433" s="12"/>
-      <c r="H433" s="13"/>
-      <c r="K433" s="12"/>
+      <c r="G433" s="11"/>
+      <c r="H433" s="12"/>
+      <c r="K433" s="11"/>
     </row>
     <row r="434" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G434" s="12"/>
-      <c r="H434" s="13"/>
-      <c r="K434" s="12"/>
+      <c r="G434" s="11"/>
+      <c r="H434" s="12"/>
+      <c r="K434" s="11"/>
     </row>
     <row r="435" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G435" s="12"/>
-      <c r="H435" s="13"/>
-      <c r="K435" s="12"/>
+      <c r="G435" s="11"/>
+      <c r="H435" s="12"/>
+      <c r="K435" s="11"/>
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G436" s="12"/>
-      <c r="H436" s="13"/>
-      <c r="K436" s="12"/>
+      <c r="G436" s="11"/>
+      <c r="H436" s="12"/>
+      <c r="K436" s="11"/>
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G437" s="12"/>
-      <c r="H437" s="13"/>
-      <c r="K437" s="12"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="12"/>
+      <c r="K437" s="11"/>
     </row>
     <row r="438" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G438" s="12"/>
-      <c r="H438" s="13"/>
-      <c r="K438" s="12"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="12"/>
+      <c r="K438" s="11"/>
     </row>
     <row r="439" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G439" s="12"/>
-      <c r="H439" s="13"/>
-      <c r="K439" s="12"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="12"/>
+      <c r="K439" s="11"/>
     </row>
     <row r="440" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G440" s="12"/>
-      <c r="H440" s="13"/>
-      <c r="K440" s="12"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="12"/>
+      <c r="K440" s="11"/>
     </row>
     <row r="441" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G441" s="12"/>
-      <c r="H441" s="13"/>
-      <c r="K441" s="12"/>
+      <c r="G441" s="11"/>
+      <c r="H441" s="12"/>
+      <c r="K441" s="11"/>
     </row>
     <row r="442" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G442" s="12"/>
-      <c r="H442" s="13"/>
-      <c r="K442" s="12"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="12"/>
+      <c r="K442" s="11"/>
     </row>
     <row r="443" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G443" s="12"/>
-      <c r="H443" s="13"/>
-      <c r="K443" s="12"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="12"/>
+      <c r="K443" s="11"/>
     </row>
     <row r="444" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G444" s="12"/>
-      <c r="H444" s="13"/>
-      <c r="K444" s="12"/>
+      <c r="G444" s="11"/>
+      <c r="H444" s="12"/>
+      <c r="K444" s="11"/>
     </row>
     <row r="445" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G445" s="12"/>
-      <c r="H445" s="13"/>
-      <c r="K445" s="12"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="12"/>
+      <c r="K445" s="11"/>
     </row>
     <row r="446" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G446" s="12"/>
-      <c r="H446" s="13"/>
-      <c r="K446" s="12"/>
+      <c r="G446" s="11"/>
+      <c r="H446" s="12"/>
+      <c r="K446" s="11"/>
     </row>
     <row r="447" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G447" s="12"/>
-      <c r="H447" s="13"/>
-      <c r="K447" s="12"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="12"/>
+      <c r="K447" s="11"/>
     </row>
     <row r="448" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G448" s="12"/>
-      <c r="H448" s="13"/>
-      <c r="K448" s="12"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="12"/>
+      <c r="K448" s="11"/>
     </row>
     <row r="449" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G449" s="12"/>
-      <c r="H449" s="13"/>
-      <c r="K449" s="12"/>
+      <c r="G449" s="11"/>
+      <c r="H449" s="12"/>
+      <c r="K449" s="11"/>
     </row>
     <row r="450" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G450" s="12"/>
-      <c r="H450" s="13"/>
-      <c r="K450" s="12"/>
+      <c r="G450" s="11"/>
+      <c r="H450" s="12"/>
+      <c r="K450" s="11"/>
     </row>
     <row r="451" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G451" s="12"/>
-      <c r="H451" s="13"/>
-      <c r="K451" s="12"/>
+      <c r="G451" s="11"/>
+      <c r="H451" s="12"/>
+      <c r="K451" s="11"/>
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G452" s="12"/>
-      <c r="H452" s="13"/>
-      <c r="K452" s="12"/>
+      <c r="G452" s="11"/>
+      <c r="H452" s="12"/>
+      <c r="K452" s="11"/>
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G453" s="12"/>
-      <c r="H453" s="13"/>
-      <c r="K453" s="12"/>
+      <c r="G453" s="11"/>
+      <c r="H453" s="12"/>
+      <c r="K453" s="11"/>
     </row>
     <row r="454" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G454" s="12"/>
-      <c r="H454" s="13"/>
-      <c r="K454" s="12"/>
+      <c r="G454" s="11"/>
+      <c r="H454" s="12"/>
+      <c r="K454" s="11"/>
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G455" s="12"/>
-      <c r="H455" s="13"/>
-      <c r="K455" s="12"/>
+      <c r="G455" s="11"/>
+      <c r="H455" s="12"/>
+      <c r="K455" s="11"/>
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G456" s="12"/>
-      <c r="H456" s="13"/>
-      <c r="K456" s="12"/>
+      <c r="G456" s="11"/>
+      <c r="H456" s="12"/>
+      <c r="K456" s="11"/>
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G457" s="12"/>
-      <c r="H457" s="13"/>
-      <c r="K457" s="12"/>
+      <c r="G457" s="11"/>
+      <c r="H457" s="12"/>
+      <c r="K457" s="11"/>
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G458" s="12"/>
-      <c r="H458" s="13"/>
-      <c r="K458" s="12"/>
+      <c r="G458" s="11"/>
+      <c r="H458" s="12"/>
+      <c r="K458" s="11"/>
     </row>
     <row r="459" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G459" s="12"/>
-      <c r="H459" s="13"/>
-      <c r="K459" s="12"/>
+      <c r="G459" s="11"/>
+      <c r="H459" s="12"/>
+      <c r="K459" s="11"/>
     </row>
     <row r="460" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G460" s="12"/>
-      <c r="H460" s="13"/>
-      <c r="K460" s="12"/>
+      <c r="G460" s="11"/>
+      <c r="H460" s="12"/>
+      <c r="K460" s="11"/>
     </row>
     <row r="461" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G461" s="12"/>
-      <c r="H461" s="13"/>
-      <c r="K461" s="12"/>
+      <c r="G461" s="11"/>
+      <c r="H461" s="12"/>
+      <c r="K461" s="11"/>
     </row>
     <row r="462" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G462" s="12"/>
-      <c r="H462" s="13"/>
-      <c r="K462" s="12"/>
+      <c r="G462" s="11"/>
+      <c r="H462" s="12"/>
+      <c r="K462" s="11"/>
     </row>
     <row r="463" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G463" s="12"/>
-      <c r="H463" s="13"/>
-      <c r="K463" s="12"/>
+      <c r="G463" s="11"/>
+      <c r="H463" s="12"/>
+      <c r="K463" s="11"/>
     </row>
     <row r="464" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G464" s="12"/>
-      <c r="H464" s="13"/>
-      <c r="K464" s="12"/>
+      <c r="G464" s="11"/>
+      <c r="H464" s="12"/>
+      <c r="K464" s="11"/>
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G465" s="12"/>
-      <c r="H465" s="13"/>
-      <c r="K465" s="12"/>
+      <c r="G465" s="11"/>
+      <c r="H465" s="12"/>
+      <c r="K465" s="11"/>
     </row>
     <row r="466" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G466" s="12"/>
-      <c r="H466" s="13"/>
-      <c r="K466" s="12"/>
+      <c r="G466" s="11"/>
+      <c r="H466" s="12"/>
+      <c r="K466" s="11"/>
     </row>
     <row r="467" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G467" s="12"/>
-      <c r="H467" s="13"/>
-      <c r="K467" s="12"/>
+      <c r="G467" s="11"/>
+      <c r="H467" s="12"/>
+      <c r="K467" s="11"/>
     </row>
     <row r="468" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G468" s="12"/>
-      <c r="H468" s="13"/>
-      <c r="K468" s="12"/>
+      <c r="G468" s="11"/>
+      <c r="H468" s="12"/>
+      <c r="K468" s="11"/>
     </row>
     <row r="469" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G469" s="12"/>
-      <c r="H469" s="13"/>
-      <c r="K469" s="12"/>
+      <c r="G469" s="11"/>
+      <c r="H469" s="12"/>
+      <c r="K469" s="11"/>
     </row>
     <row r="470" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G470" s="12"/>
-      <c r="H470" s="13"/>
-      <c r="K470" s="12"/>
+      <c r="G470" s="11"/>
+      <c r="H470" s="12"/>
+      <c r="K470" s="11"/>
     </row>
     <row r="471" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G471" s="12"/>
-      <c r="H471" s="13"/>
-      <c r="K471" s="12"/>
+      <c r="G471" s="11"/>
+      <c r="H471" s="12"/>
+      <c r="K471" s="11"/>
     </row>
     <row r="472" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G472" s="12"/>
-      <c r="H472" s="13"/>
-      <c r="K472" s="12"/>
+      <c r="G472" s="11"/>
+      <c r="H472" s="12"/>
+      <c r="K472" s="11"/>
     </row>
     <row r="473" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G473" s="12"/>
-      <c r="H473" s="13"/>
-      <c r="K473" s="12"/>
+      <c r="G473" s="11"/>
+      <c r="H473" s="12"/>
+      <c r="K473" s="11"/>
     </row>
     <row r="474" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G474" s="12"/>
-      <c r="H474" s="13"/>
-      <c r="K474" s="12"/>
+      <c r="G474" s="11"/>
+      <c r="H474" s="12"/>
+      <c r="K474" s="11"/>
     </row>
     <row r="475" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G475" s="12"/>
-      <c r="H475" s="13"/>
-      <c r="K475" s="12"/>
+      <c r="G475" s="11"/>
+      <c r="H475" s="12"/>
+      <c r="K475" s="11"/>
     </row>
     <row r="476" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G476" s="12"/>
-      <c r="H476" s="13"/>
-      <c r="K476" s="12"/>
+      <c r="G476" s="11"/>
+      <c r="H476" s="12"/>
+      <c r="K476" s="11"/>
     </row>
     <row r="477" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G477" s="12"/>
-      <c r="H477" s="13"/>
-      <c r="K477" s="12"/>
+      <c r="G477" s="11"/>
+      <c r="H477" s="12"/>
+      <c r="K477" s="11"/>
     </row>
     <row r="478" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G478" s="12"/>
-      <c r="H478" s="13"/>
-      <c r="K478" s="12"/>
+      <c r="G478" s="11"/>
+      <c r="H478" s="12"/>
+      <c r="K478" s="11"/>
     </row>
     <row r="479" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G479" s="12"/>
-      <c r="H479" s="13"/>
-      <c r="K479" s="12"/>
+      <c r="G479" s="11"/>
+      <c r="H479" s="12"/>
+      <c r="K479" s="11"/>
     </row>
     <row r="480" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G480" s="12"/>
-      <c r="H480" s="13"/>
-      <c r="K480" s="12"/>
+      <c r="G480" s="11"/>
+      <c r="H480" s="12"/>
+      <c r="K480" s="11"/>
     </row>
     <row r="481" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G481" s="12"/>
-      <c r="H481" s="13"/>
-      <c r="K481" s="12"/>
+      <c r="G481" s="11"/>
+      <c r="H481" s="12"/>
+      <c r="K481" s="11"/>
     </row>
     <row r="482" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G482" s="12"/>
-      <c r="H482" s="13"/>
-      <c r="K482" s="12"/>
+      <c r="G482" s="11"/>
+      <c r="H482" s="12"/>
+      <c r="K482" s="11"/>
     </row>
     <row r="483" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G483" s="12"/>
-      <c r="H483" s="13"/>
-      <c r="K483" s="12"/>
+      <c r="G483" s="11"/>
+      <c r="H483" s="12"/>
+      <c r="K483" s="11"/>
     </row>
     <row r="484" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G484" s="12"/>
-      <c r="H484" s="13"/>
-      <c r="K484" s="12"/>
+      <c r="G484" s="11"/>
+      <c r="H484" s="12"/>
+      <c r="K484" s="11"/>
     </row>
     <row r="485" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G485" s="12"/>
-      <c r="H485" s="13"/>
-      <c r="K485" s="12"/>
+      <c r="G485" s="11"/>
+      <c r="H485" s="12"/>
+      <c r="K485" s="11"/>
     </row>
     <row r="486" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G486" s="12"/>
-      <c r="H486" s="13"/>
-      <c r="K486" s="12"/>
+      <c r="G486" s="11"/>
+      <c r="H486" s="12"/>
+      <c r="K486" s="11"/>
     </row>
     <row r="487" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G487" s="12"/>
-      <c r="H487" s="13"/>
-      <c r="K487" s="12"/>
+      <c r="G487" s="11"/>
+      <c r="H487" s="12"/>
+      <c r="K487" s="11"/>
     </row>
     <row r="488" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G488" s="12"/>
-      <c r="H488" s="13"/>
-      <c r="K488" s="12"/>
+      <c r="G488" s="11"/>
+      <c r="H488" s="12"/>
+      <c r="K488" s="11"/>
     </row>
     <row r="489" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G489" s="12"/>
-      <c r="H489" s="13"/>
-      <c r="K489" s="12"/>
+      <c r="G489" s="11"/>
+      <c r="H489" s="12"/>
+      <c r="K489" s="11"/>
     </row>
     <row r="490" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G490" s="12"/>
-      <c r="H490" s="13"/>
-      <c r="K490" s="12"/>
+      <c r="G490" s="11"/>
+      <c r="H490" s="12"/>
+      <c r="K490" s="11"/>
     </row>
     <row r="491" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G491" s="12"/>
-      <c r="H491" s="13"/>
-      <c r="K491" s="12"/>
+      <c r="G491" s="11"/>
+      <c r="H491" s="12"/>
+      <c r="K491" s="11"/>
     </row>
     <row r="492" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G492" s="12"/>
-      <c r="H492" s="13"/>
-      <c r="K492" s="12"/>
+      <c r="G492" s="11"/>
+      <c r="H492" s="12"/>
+      <c r="K492" s="11"/>
     </row>
     <row r="493" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G493" s="12"/>
-      <c r="H493" s="13"/>
-      <c r="K493" s="12"/>
+      <c r="G493" s="11"/>
+      <c r="H493" s="12"/>
+      <c r="K493" s="11"/>
     </row>
     <row r="494" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G494" s="12"/>
-      <c r="H494" s="13"/>
-      <c r="K494" s="12"/>
+      <c r="G494" s="11"/>
+      <c r="H494" s="12"/>
+      <c r="K494" s="11"/>
     </row>
     <row r="495" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G495" s="12"/>
-      <c r="H495" s="13"/>
-      <c r="K495" s="12"/>
+      <c r="G495" s="11"/>
+      <c r="H495" s="12"/>
+      <c r="K495" s="11"/>
     </row>
     <row r="496" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G496" s="12"/>
-      <c r="H496" s="13"/>
-      <c r="K496" s="12"/>
+      <c r="G496" s="11"/>
+      <c r="H496" s="12"/>
+      <c r="K496" s="11"/>
     </row>
     <row r="497" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G497" s="12"/>
-      <c r="H497" s="13"/>
-      <c r="K497" s="12"/>
+      <c r="G497" s="11"/>
+      <c r="H497" s="12"/>
+      <c r="K497" s="11"/>
     </row>
     <row r="498" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G498" s="12"/>
-      <c r="H498" s="13"/>
-      <c r="K498" s="12"/>
+      <c r="G498" s="11"/>
+      <c r="H498" s="12"/>
+      <c r="K498" s="11"/>
     </row>
     <row r="499" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G499" s="12"/>
-      <c r="H499" s="13"/>
-      <c r="K499" s="12"/>
+      <c r="G499" s="11"/>
+      <c r="H499" s="12"/>
+      <c r="K499" s="11"/>
     </row>
     <row r="500" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G500" s="12"/>
-      <c r="H500" s="13"/>
-      <c r="K500" s="12"/>
+      <c r="G500" s="11"/>
+      <c r="H500" s="12"/>
+      <c r="K500" s="11"/>
     </row>
     <row r="501" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G501" s="12"/>
-      <c r="H501" s="13"/>
-      <c r="K501" s="12"/>
+      <c r="G501" s="11"/>
+      <c r="H501" s="12"/>
+      <c r="K501" s="11"/>
     </row>
     <row r="502" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G502" s="12"/>
-      <c r="H502" s="13"/>
-      <c r="K502" s="12"/>
+      <c r="G502" s="11"/>
+      <c r="H502" s="12"/>
+      <c r="K502" s="11"/>
     </row>
     <row r="503" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G503" s="12"/>
-      <c r="H503" s="13"/>
-      <c r="K503" s="12"/>
+      <c r="G503" s="11"/>
+      <c r="H503" s="12"/>
+      <c r="K503" s="11"/>
     </row>
     <row r="504" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G504" s="12"/>
-      <c r="H504" s="13"/>
-      <c r="K504" s="12"/>
+      <c r="G504" s="11"/>
+      <c r="H504" s="12"/>
+      <c r="K504" s="11"/>
     </row>
     <row r="505" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G505" s="12"/>
-      <c r="H505" s="13"/>
-      <c r="K505" s="12"/>
+      <c r="G505" s="11"/>
+      <c r="H505" s="12"/>
+      <c r="K505" s="11"/>
     </row>
     <row r="506" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G506" s="12"/>
-      <c r="H506" s="13"/>
-      <c r="K506" s="12"/>
+      <c r="G506" s="11"/>
+      <c r="H506" s="12"/>
+      <c r="K506" s="11"/>
     </row>
     <row r="507" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G507" s="12"/>
-      <c r="H507" s="13"/>
-      <c r="K507" s="12"/>
+      <c r="G507" s="11"/>
+      <c r="H507" s="12"/>
+      <c r="K507" s="11"/>
     </row>
     <row r="508" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G508" s="12"/>
-      <c r="H508" s="13"/>
-      <c r="K508" s="12"/>
+      <c r="G508" s="11"/>
+      <c r="H508" s="12"/>
+      <c r="K508" s="11"/>
     </row>
     <row r="509" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G509" s="12"/>
-      <c r="H509" s="13"/>
-      <c r="K509" s="12"/>
+      <c r="G509" s="11"/>
+      <c r="H509" s="12"/>
+      <c r="K509" s="11"/>
     </row>
     <row r="510" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G510" s="12"/>
-      <c r="H510" s="13"/>
-      <c r="K510" s="12"/>
+      <c r="G510" s="11"/>
+      <c r="H510" s="12"/>
+      <c r="K510" s="11"/>
     </row>
     <row r="511" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G511" s="12"/>
-      <c r="H511" s="13"/>
-      <c r="K511" s="12"/>
+      <c r="G511" s="11"/>
+      <c r="H511" s="12"/>
+      <c r="K511" s="11"/>
     </row>
     <row r="512" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G512" s="12"/>
-      <c r="H512" s="13"/>
-      <c r="K512" s="12"/>
+      <c r="G512" s="11"/>
+      <c r="H512" s="12"/>
+      <c r="K512" s="11"/>
     </row>
     <row r="513" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G513" s="12"/>
-      <c r="H513" s="13"/>
-      <c r="K513" s="12"/>
+      <c r="G513" s="11"/>
+      <c r="H513" s="12"/>
+      <c r="K513" s="11"/>
     </row>
     <row r="514" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G514" s="12"/>
-      <c r="H514" s="13"/>
-      <c r="K514" s="12"/>
+      <c r="G514" s="11"/>
+      <c r="H514" s="12"/>
+      <c r="K514" s="11"/>
     </row>
     <row r="515" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G515" s="12"/>
-      <c r="H515" s="13"/>
-      <c r="K515" s="12"/>
+      <c r="G515" s="11"/>
+      <c r="H515" s="12"/>
+      <c r="K515" s="11"/>
     </row>
     <row r="516" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G516" s="12"/>
-      <c r="H516" s="13"/>
-      <c r="K516" s="12"/>
+      <c r="G516" s="11"/>
+      <c r="H516" s="12"/>
+      <c r="K516" s="11"/>
     </row>
     <row r="517" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G517" s="12"/>
-      <c r="H517" s="13"/>
-      <c r="K517" s="12"/>
+      <c r="G517" s="11"/>
+      <c r="H517" s="12"/>
+      <c r="K517" s="11"/>
     </row>
     <row r="518" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G518" s="12"/>
-      <c r="H518" s="13"/>
-      <c r="K518" s="12"/>
+      <c r="G518" s="11"/>
+      <c r="H518" s="12"/>
+      <c r="K518" s="11"/>
     </row>
     <row r="519" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G519" s="12"/>
-      <c r="H519" s="13"/>
-      <c r="K519" s="12"/>
+      <c r="G519" s="11"/>
+      <c r="H519" s="12"/>
+      <c r="K519" s="11"/>
     </row>
     <row r="520" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G520" s="12"/>
-      <c r="H520" s="13"/>
-      <c r="K520" s="12"/>
+      <c r="G520" s="11"/>
+      <c r="H520" s="12"/>
+      <c r="K520" s="11"/>
     </row>
     <row r="521" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G521" s="12"/>
-      <c r="H521" s="13"/>
-      <c r="K521" s="12"/>
+      <c r="G521" s="11"/>
+      <c r="H521" s="12"/>
+      <c r="K521" s="11"/>
     </row>
     <row r="522" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G522" s="12"/>
-      <c r="H522" s="13"/>
-      <c r="K522" s="12"/>
+      <c r="G522" s="11"/>
+      <c r="H522" s="12"/>
+      <c r="K522" s="11"/>
     </row>
     <row r="523" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G523" s="12"/>
-      <c r="H523" s="13"/>
-      <c r="K523" s="12"/>
+      <c r="G523" s="11"/>
+      <c r="H523" s="12"/>
+      <c r="K523" s="11"/>
     </row>
     <row r="524" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G524" s="12"/>
-      <c r="H524" s="13"/>
-      <c r="K524" s="12"/>
+      <c r="G524" s="11"/>
+      <c r="H524" s="12"/>
+      <c r="K524" s="11"/>
     </row>
     <row r="525" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G525" s="12"/>
-      <c r="H525" s="13"/>
-      <c r="K525" s="12"/>
+      <c r="G525" s="11"/>
+      <c r="H525" s="12"/>
+      <c r="K525" s="11"/>
     </row>
     <row r="526" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G526" s="12"/>
-      <c r="H526" s="13"/>
-      <c r="K526" s="12"/>
+      <c r="G526" s="11"/>
+      <c r="H526" s="12"/>
+      <c r="K526" s="11"/>
     </row>
     <row r="527" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G527" s="12"/>
-      <c r="H527" s="13"/>
-      <c r="K527" s="12"/>
+      <c r="G527" s="11"/>
+      <c r="H527" s="12"/>
+      <c r="K527" s="11"/>
     </row>
     <row r="528" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G528" s="12"/>
-      <c r="H528" s="13"/>
-      <c r="K528" s="12"/>
+      <c r="G528" s="11"/>
+      <c r="H528" s="12"/>
+      <c r="K528" s="11"/>
     </row>
     <row r="529" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G529" s="12"/>
-      <c r="H529" s="13"/>
-      <c r="K529" s="12"/>
+      <c r="G529" s="11"/>
+      <c r="H529" s="12"/>
+      <c r="K529" s="11"/>
     </row>
     <row r="530" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G530" s="12"/>
-      <c r="H530" s="13"/>
-      <c r="K530" s="12"/>
+      <c r="G530" s="11"/>
+      <c r="H530" s="12"/>
+      <c r="K530" s="11"/>
     </row>
     <row r="531" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G531" s="12"/>
-      <c r="H531" s="13"/>
-      <c r="K531" s="12"/>
+      <c r="G531" s="11"/>
+      <c r="H531" s="12"/>
+      <c r="K531" s="11"/>
     </row>
     <row r="532" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G532" s="12"/>
-      <c r="H532" s="13"/>
-      <c r="K532" s="12"/>
+      <c r="G532" s="11"/>
+      <c r="H532" s="12"/>
+      <c r="K532" s="11"/>
     </row>
     <row r="533" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G533" s="12"/>
-      <c r="H533" s="13"/>
-      <c r="K533" s="12"/>
+      <c r="G533" s="11"/>
+      <c r="H533" s="12"/>
+      <c r="K533" s="11"/>
     </row>
     <row r="534" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G534" s="12"/>
-      <c r="H534" s="13"/>
-      <c r="K534" s="12"/>
+      <c r="G534" s="11"/>
+      <c r="H534" s="12"/>
+      <c r="K534" s="11"/>
     </row>
     <row r="535" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G535" s="12"/>
-      <c r="H535" s="13"/>
-      <c r="K535" s="12"/>
+      <c r="G535" s="11"/>
+      <c r="H535" s="12"/>
+      <c r="K535" s="11"/>
     </row>
     <row r="536" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G536" s="12"/>
-      <c r="H536" s="13"/>
-      <c r="K536" s="12"/>
+      <c r="G536" s="11"/>
+      <c r="H536" s="12"/>
+      <c r="K536" s="11"/>
     </row>
     <row r="537" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G537" s="12"/>
-      <c r="H537" s="13"/>
-      <c r="K537" s="12"/>
+      <c r="G537" s="11"/>
+      <c r="H537" s="12"/>
+      <c r="K537" s="11"/>
     </row>
     <row r="538" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G538" s="12"/>
-      <c r="H538" s="13"/>
-      <c r="K538" s="12"/>
+      <c r="G538" s="11"/>
+      <c r="H538" s="12"/>
+      <c r="K538" s="11"/>
     </row>
     <row r="539" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G539" s="12"/>
-      <c r="H539" s="13"/>
-      <c r="K539" s="12"/>
+      <c r="G539" s="11"/>
+      <c r="H539" s="12"/>
+      <c r="K539" s="11"/>
     </row>
     <row r="540" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G540" s="12"/>
-      <c r="H540" s="13"/>
-      <c r="K540" s="12"/>
+      <c r="G540" s="11"/>
+      <c r="H540" s="12"/>
+      <c r="K540" s="11"/>
     </row>
     <row r="541" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G541" s="12"/>
-      <c r="H541" s="13"/>
-      <c r="K541" s="12"/>
+      <c r="G541" s="11"/>
+      <c r="H541" s="12"/>
+      <c r="K541" s="11"/>
     </row>
     <row r="542" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G542" s="12"/>
-      <c r="H542" s="13"/>
-      <c r="K542" s="12"/>
+      <c r="G542" s="11"/>
+      <c r="H542" s="12"/>
+      <c r="K542" s="11"/>
     </row>
     <row r="543" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G543" s="12"/>
-      <c r="H543" s="13"/>
-      <c r="K543" s="12"/>
+      <c r="G543" s="11"/>
+      <c r="H543" s="12"/>
+      <c r="K543" s="11"/>
     </row>
     <row r="544" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G544" s="12"/>
-      <c r="H544" s="13"/>
-      <c r="K544" s="12"/>
+      <c r="G544" s="11"/>
+      <c r="H544" s="12"/>
+      <c r="K544" s="11"/>
     </row>
     <row r="545" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G545" s="12"/>
-      <c r="H545" s="13"/>
-      <c r="K545" s="12"/>
+      <c r="G545" s="11"/>
+      <c r="H545" s="12"/>
+      <c r="K545" s="11"/>
     </row>
     <row r="546" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G546" s="12"/>
-      <c r="H546" s="13"/>
-      <c r="K546" s="12"/>
+      <c r="G546" s="11"/>
+      <c r="H546" s="12"/>
+      <c r="K546" s="11"/>
     </row>
     <row r="547" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G547" s="12"/>
-      <c r="H547" s="13"/>
-      <c r="K547" s="12"/>
+      <c r="G547" s="11"/>
+      <c r="H547" s="12"/>
+      <c r="K547" s="11"/>
     </row>
     <row r="548" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G548" s="12"/>
-      <c r="H548" s="13"/>
-      <c r="K548" s="12"/>
+      <c r="G548" s="11"/>
+      <c r="H548" s="12"/>
+      <c r="K548" s="11"/>
     </row>
     <row r="549" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G549" s="12"/>
-      <c r="H549" s="13"/>
-      <c r="K549" s="12"/>
+      <c r="G549" s="11"/>
+      <c r="H549" s="12"/>
+      <c r="K549" s="11"/>
     </row>
     <row r="550" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G550" s="12"/>
-      <c r="H550" s="13"/>
-      <c r="K550" s="12"/>
+      <c r="G550" s="11"/>
+      <c r="H550" s="12"/>
+      <c r="K550" s="11"/>
     </row>
     <row r="551" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G551" s="12"/>
-      <c r="H551" s="13"/>
-      <c r="K551" s="12"/>
+      <c r="G551" s="11"/>
+      <c r="H551" s="12"/>
+      <c r="K551" s="11"/>
     </row>
     <row r="552" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G552" s="12"/>
-      <c r="H552" s="13"/>
-      <c r="K552" s="12"/>
+      <c r="G552" s="11"/>
+      <c r="H552" s="12"/>
+      <c r="K552" s="11"/>
     </row>
     <row r="553" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G553" s="12"/>
-      <c r="H553" s="13"/>
-      <c r="K553" s="12"/>
+      <c r="G553" s="11"/>
+      <c r="H553" s="12"/>
+      <c r="K553" s="11"/>
     </row>
     <row r="554" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G554" s="12"/>
-      <c r="H554" s="13"/>
-      <c r="K554" s="12"/>
+      <c r="G554" s="11"/>
+      <c r="H554" s="12"/>
+      <c r="K554" s="11"/>
     </row>
     <row r="555" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G555" s="12"/>
-      <c r="H555" s="13"/>
-      <c r="K555" s="12"/>
+      <c r="G555" s="11"/>
+      <c r="H555" s="12"/>
+      <c r="K555" s="11"/>
     </row>
     <row r="556" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G556" s="12"/>
-      <c r="H556" s="13"/>
-      <c r="K556" s="12"/>
+      <c r="G556" s="11"/>
+      <c r="H556" s="12"/>
+      <c r="K556" s="11"/>
     </row>
     <row r="557" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G557" s="12"/>
-      <c r="H557" s="13"/>
-      <c r="K557" s="12"/>
+      <c r="G557" s="11"/>
+      <c r="H557" s="12"/>
+      <c r="K557" s="11"/>
     </row>
     <row r="558" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G558" s="12"/>
-      <c r="H558" s="13"/>
-      <c r="K558" s="12"/>
+      <c r="G558" s="11"/>
+      <c r="H558" s="12"/>
+      <c r="K558" s="11"/>
     </row>
     <row r="559" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G559" s="12"/>
-      <c r="H559" s="13"/>
-      <c r="K559" s="12"/>
+      <c r="G559" s="11"/>
+      <c r="H559" s="12"/>
+      <c r="K559" s="11"/>
     </row>
     <row r="560" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G560" s="12"/>
-      <c r="H560" s="13"/>
-      <c r="K560" s="12"/>
+      <c r="G560" s="11"/>
+      <c r="H560" s="12"/>
+      <c r="K560" s="11"/>
     </row>
     <row r="561" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G561" s="12"/>
-      <c r="H561" s="13"/>
-      <c r="K561" s="12"/>
+      <c r="G561" s="11"/>
+      <c r="H561" s="12"/>
+      <c r="K561" s="11"/>
     </row>
     <row r="562" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G562" s="12"/>
-      <c r="H562" s="13"/>
-      <c r="K562" s="12"/>
+      <c r="G562" s="11"/>
+      <c r="H562" s="12"/>
+      <c r="K562" s="11"/>
     </row>
     <row r="563" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G563" s="12"/>
-      <c r="H563" s="13"/>
-      <c r="K563" s="12"/>
+      <c r="G563" s="11"/>
+      <c r="H563" s="12"/>
+      <c r="K563" s="11"/>
     </row>
     <row r="564" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G564" s="12"/>
-      <c r="H564" s="13"/>
-      <c r="K564" s="12"/>
+      <c r="G564" s="11"/>
+      <c r="H564" s="12"/>
+      <c r="K564" s="11"/>
     </row>
     <row r="565" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G565" s="12"/>
-      <c r="H565" s="13"/>
-      <c r="K565" s="12"/>
+      <c r="G565" s="11"/>
+      <c r="H565" s="12"/>
+      <c r="K565" s="11"/>
     </row>
     <row r="566" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G566" s="12"/>
-      <c r="H566" s="13"/>
-      <c r="K566" s="12"/>
+      <c r="G566" s="11"/>
+      <c r="H566" s="12"/>
+      <c r="K566" s="11"/>
     </row>
     <row r="567" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G567" s="12"/>
-      <c r="H567" s="13"/>
-      <c r="K567" s="12"/>
+      <c r="G567" s="11"/>
+      <c r="H567" s="12"/>
+      <c r="K567" s="11"/>
     </row>
     <row r="568" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G568" s="12"/>
-      <c r="H568" s="13"/>
-      <c r="K568" s="12"/>
+      <c r="G568" s="11"/>
+      <c r="H568" s="12"/>
+      <c r="K568" s="11"/>
     </row>
     <row r="569" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G569" s="12"/>
-      <c r="H569" s="13"/>
-      <c r="K569" s="12"/>
+      <c r="G569" s="11"/>
+      <c r="H569" s="12"/>
+      <c r="K569" s="11"/>
     </row>
     <row r="570" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G570" s="12"/>
-      <c r="H570" s="13"/>
-      <c r="K570" s="12"/>
+      <c r="G570" s="11"/>
+      <c r="H570" s="12"/>
+      <c r="K570" s="11"/>
     </row>
     <row r="571" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G571" s="12"/>
-      <c r="H571" s="13"/>
-      <c r="K571" s="12"/>
+      <c r="G571" s="11"/>
+      <c r="H571" s="12"/>
+      <c r="K571" s="11"/>
     </row>
     <row r="572" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G572" s="12"/>
-      <c r="H572" s="13"/>
-      <c r="K572" s="12"/>
+      <c r="G572" s="11"/>
+      <c r="H572" s="12"/>
+      <c r="K572" s="11"/>
     </row>
     <row r="573" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G573" s="12"/>
-      <c r="H573" s="13"/>
-      <c r="K573" s="12"/>
+      <c r="G573" s="11"/>
+      <c r="H573" s="12"/>
+      <c r="K573" s="11"/>
     </row>
     <row r="574" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G574" s="12"/>
-      <c r="H574" s="13"/>
-      <c r="K574" s="12"/>
+      <c r="G574" s="11"/>
+      <c r="H574" s="12"/>
+      <c r="K574" s="11"/>
     </row>
     <row r="575" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G575" s="12"/>
-      <c r="H575" s="13"/>
-      <c r="K575" s="12"/>
+      <c r="G575" s="11"/>
+      <c r="H575" s="12"/>
+      <c r="K575" s="11"/>
     </row>
     <row r="576" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G576" s="12"/>
-      <c r="H576" s="13"/>
-      <c r="K576" s="12"/>
+      <c r="G576" s="11"/>
+      <c r="H576" s="12"/>
+      <c r="K576" s="11"/>
     </row>
     <row r="577" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G577" s="12"/>
-      <c r="H577" s="13"/>
-      <c r="K577" s="12"/>
+      <c r="G577" s="11"/>
+      <c r="H577" s="12"/>
+      <c r="K577" s="11"/>
     </row>
     <row r="578" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G578" s="12"/>
-      <c r="H578" s="13"/>
-      <c r="K578" s="12"/>
+      <c r="G578" s="11"/>
+      <c r="H578" s="12"/>
+      <c r="K578" s="11"/>
     </row>
     <row r="579" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G579" s="12"/>
-      <c r="H579" s="13"/>
-      <c r="K579" s="12"/>
+      <c r="G579" s="11"/>
+      <c r="H579" s="12"/>
+      <c r="K579" s="11"/>
     </row>
     <row r="580" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G580" s="12"/>
-      <c r="H580" s="13"/>
-      <c r="K580" s="12"/>
+      <c r="G580" s="11"/>
+      <c r="H580" s="12"/>
+      <c r="K580" s="11"/>
     </row>
     <row r="581" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G581" s="12"/>
-      <c r="H581" s="13"/>
-      <c r="K581" s="12"/>
+      <c r="G581" s="11"/>
+      <c r="H581" s="12"/>
+      <c r="K581" s="11"/>
     </row>
     <row r="582" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G582" s="12"/>
-      <c r="H582" s="13"/>
-      <c r="K582" s="12"/>
+      <c r="G582" s="11"/>
+      <c r="H582" s="12"/>
+      <c r="K582" s="11"/>
     </row>
     <row r="583" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G583" s="12"/>
-      <c r="H583" s="13"/>
-      <c r="K583" s="12"/>
+      <c r="G583" s="11"/>
+      <c r="H583" s="12"/>
+      <c r="K583" s="11"/>
     </row>
     <row r="584" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G584" s="12"/>
-      <c r="H584" s="13"/>
-      <c r="K584" s="12"/>
+      <c r="G584" s="11"/>
+      <c r="H584" s="12"/>
+      <c r="K584" s="11"/>
     </row>
     <row r="585" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G585" s="12"/>
-      <c r="H585" s="13"/>
-      <c r="K585" s="12"/>
+      <c r="G585" s="11"/>
+      <c r="H585" s="12"/>
+      <c r="K585" s="11"/>
     </row>
     <row r="586" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G586" s="12"/>
-      <c r="H586" s="13"/>
-      <c r="K586" s="12"/>
+      <c r="G586" s="11"/>
+      <c r="H586" s="12"/>
+      <c r="K586" s="11"/>
     </row>
     <row r="587" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G587" s="12"/>
-      <c r="H587" s="13"/>
-      <c r="K587" s="12"/>
+      <c r="G587" s="11"/>
+      <c r="H587" s="12"/>
+      <c r="K587" s="11"/>
     </row>
     <row r="588" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G588" s="12"/>
-      <c r="H588" s="13"/>
-      <c r="K588" s="12"/>
+      <c r="G588" s="11"/>
+      <c r="H588" s="12"/>
+      <c r="K588" s="11"/>
     </row>
     <row r="589" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G589" s="12"/>
-      <c r="H589" s="13"/>
-      <c r="K589" s="12"/>
+      <c r="G589" s="11"/>
+      <c r="H589" s="12"/>
+      <c r="K589" s="11"/>
     </row>
     <row r="590" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G590" s="12"/>
-      <c r="H590" s="13"/>
-      <c r="K590" s="12"/>
+      <c r="G590" s="11"/>
+      <c r="H590" s="12"/>
+      <c r="K590" s="11"/>
     </row>
     <row r="591" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G591" s="12"/>
-      <c r="H591" s="13"/>
-      <c r="K591" s="12"/>
+      <c r="G591" s="11"/>
+      <c r="H591" s="12"/>
+      <c r="K591" s="11"/>
     </row>
     <row r="592" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G592" s="12"/>
-      <c r="H592" s="13"/>
-      <c r="K592" s="12"/>
+      <c r="G592" s="11"/>
+      <c r="H592" s="12"/>
+      <c r="K592" s="11"/>
     </row>
     <row r="593" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G593" s="12"/>
-      <c r="H593" s="13"/>
-      <c r="K593" s="12"/>
+      <c r="G593" s="11"/>
+      <c r="H593" s="12"/>
+      <c r="K593" s="11"/>
     </row>
     <row r="594" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G594" s="12"/>
-      <c r="H594" s="13"/>
-      <c r="K594" s="12"/>
+      <c r="G594" s="11"/>
+      <c r="H594" s="12"/>
+      <c r="K594" s="11"/>
     </row>
     <row r="595" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G595" s="12"/>
-      <c r="H595" s="13"/>
-      <c r="K595" s="12"/>
+      <c r="G595" s="11"/>
+      <c r="H595" s="12"/>
+      <c r="K595" s="11"/>
     </row>
     <row r="596" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G596" s="12"/>
-      <c r="H596" s="13"/>
-      <c r="K596" s="12"/>
+      <c r="G596" s="11"/>
+      <c r="H596" s="12"/>
+      <c r="K596" s="11"/>
     </row>
     <row r="597" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G597" s="12"/>
-      <c r="H597" s="13"/>
-      <c r="K597" s="12"/>
+      <c r="G597" s="11"/>
+      <c r="H597" s="12"/>
+      <c r="K597" s="11"/>
     </row>
     <row r="598" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G598" s="12"/>
-      <c r="H598" s="13"/>
-      <c r="K598" s="12"/>
+      <c r="G598" s="11"/>
+      <c r="H598" s="12"/>
+      <c r="K598" s="11"/>
     </row>
     <row r="599" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G599" s="12"/>
-      <c r="H599" s="13"/>
-      <c r="K599" s="12"/>
+      <c r="G599" s="11"/>
+      <c r="H599" s="12"/>
+      <c r="K599" s="11"/>
     </row>
     <row r="600" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G600" s="12"/>
-      <c r="H600" s="13"/>
-      <c r="K600" s="12"/>
+      <c r="G600" s="11"/>
+      <c r="H600" s="12"/>
+      <c r="K600" s="11"/>
     </row>
     <row r="601" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G601" s="12"/>
-      <c r="H601" s="13"/>
-      <c r="K601" s="12"/>
+      <c r="G601" s="11"/>
+      <c r="H601" s="12"/>
+      <c r="K601" s="11"/>
     </row>
     <row r="602" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G602" s="12"/>
-      <c r="H602" s="13"/>
-      <c r="K602" s="12"/>
+      <c r="G602" s="11"/>
+      <c r="H602" s="12"/>
+      <c r="K602" s="11"/>
     </row>
     <row r="603" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G603" s="12"/>
-      <c r="H603" s="13"/>
-      <c r="K603" s="12"/>
+      <c r="G603" s="11"/>
+      <c r="H603" s="12"/>
+      <c r="K603" s="11"/>
     </row>
     <row r="604" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G604" s="12"/>
-      <c r="H604" s="13"/>
-      <c r="K604" s="12"/>
+      <c r="G604" s="11"/>
+      <c r="H604" s="12"/>
+      <c r="K604" s="11"/>
     </row>
     <row r="605" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G605" s="12"/>
-      <c r="H605" s="13"/>
-      <c r="K605" s="12"/>
+      <c r="G605" s="11"/>
+      <c r="H605" s="12"/>
+      <c r="K605" s="11"/>
     </row>
     <row r="606" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G606" s="12"/>
-      <c r="H606" s="13"/>
-      <c r="K606" s="12"/>
+      <c r="G606" s="11"/>
+      <c r="H606" s="12"/>
+      <c r="K606" s="11"/>
     </row>
     <row r="607" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G607" s="12"/>
-      <c r="H607" s="13"/>
-      <c r="K607" s="12"/>
+      <c r="G607" s="11"/>
+      <c r="H607" s="12"/>
+      <c r="K607" s="11"/>
     </row>
     <row r="608" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G608" s="12"/>
-      <c r="H608" s="13"/>
-      <c r="K608" s="12"/>
+      <c r="G608" s="11"/>
+      <c r="H608" s="12"/>
+      <c r="K608" s="11"/>
     </row>
     <row r="609" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G609" s="12"/>
-      <c r="H609" s="13"/>
-      <c r="K609" s="12"/>
+      <c r="G609" s="11"/>
+      <c r="H609" s="12"/>
+      <c r="K609" s="11"/>
     </row>
     <row r="610" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G610" s="12"/>
-      <c r="H610" s="13"/>
-      <c r="K610" s="12"/>
+      <c r="G610" s="11"/>
+      <c r="H610" s="12"/>
+      <c r="K610" s="11"/>
     </row>
     <row r="611" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G611" s="12"/>
-      <c r="H611" s="13"/>
-      <c r="K611" s="12"/>
+      <c r="G611" s="11"/>
+      <c r="H611" s="12"/>
+      <c r="K611" s="11"/>
     </row>
     <row r="612" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G612" s="12"/>
-      <c r="H612" s="13"/>
-      <c r="K612" s="12"/>
+      <c r="G612" s="11"/>
+      <c r="H612" s="12"/>
+      <c r="K612" s="11"/>
     </row>
     <row r="613" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G613" s="12"/>
-      <c r="H613" s="13"/>
-      <c r="K613" s="12"/>
+      <c r="G613" s="11"/>
+      <c r="H613" s="12"/>
+      <c r="K613" s="11"/>
     </row>
     <row r="614" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G614" s="12"/>
-      <c r="H614" s="13"/>
-      <c r="K614" s="12"/>
+      <c r="G614" s="11"/>
+      <c r="H614" s="12"/>
+      <c r="K614" s="11"/>
     </row>
     <row r="615" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G615" s="12"/>
-      <c r="H615" s="13"/>
-      <c r="K615" s="12"/>
+      <c r="G615" s="11"/>
+      <c r="H615" s="12"/>
+      <c r="K615" s="11"/>
     </row>
     <row r="616" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G616" s="12"/>
-      <c r="H616" s="13"/>
-      <c r="K616" s="12"/>
+      <c r="G616" s="11"/>
+      <c r="H616" s="12"/>
+      <c r="K616" s="11"/>
     </row>
     <row r="617" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G617" s="12"/>
-      <c r="H617" s="13"/>
-      <c r="K617" s="12"/>
+      <c r="G617" s="11"/>
+      <c r="H617" s="12"/>
+      <c r="K617" s="11"/>
     </row>
     <row r="618" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G618" s="12"/>
-      <c r="H618" s="13"/>
-      <c r="K618" s="12"/>
+      <c r="G618" s="11"/>
+      <c r="H618" s="12"/>
+      <c r="K618" s="11"/>
     </row>
     <row r="619" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G619" s="12"/>
-      <c r="H619" s="13"/>
-      <c r="K619" s="12"/>
+      <c r="G619" s="11"/>
+      <c r="H619" s="12"/>
+      <c r="K619" s="11"/>
     </row>
     <row r="620" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G620" s="12"/>
-      <c r="H620" s="13"/>
-      <c r="K620" s="12"/>
+      <c r="G620" s="11"/>
+      <c r="H620" s="12"/>
+      <c r="K620" s="11"/>
     </row>
     <row r="621" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G621" s="12"/>
-      <c r="H621" s="13"/>
-      <c r="K621" s="12"/>
+      <c r="G621" s="11"/>
+      <c r="H621" s="12"/>
+      <c r="K621" s="11"/>
     </row>
     <row r="622" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G622" s="12"/>
-      <c r="H622" s="13"/>
-      <c r="K622" s="12"/>
+      <c r="G622" s="11"/>
+      <c r="H622" s="12"/>
+      <c r="K622" s="11"/>
     </row>
     <row r="623" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G623" s="12"/>
-      <c r="H623" s="13"/>
-      <c r="K623" s="12"/>
+      <c r="G623" s="11"/>
+      <c r="H623" s="12"/>
+      <c r="K623" s="11"/>
     </row>
     <row r="624" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G624" s="12"/>
-      <c r="H624" s="13"/>
-      <c r="K624" s="12"/>
+      <c r="G624" s="11"/>
+      <c r="H624" s="12"/>
+      <c r="K624" s="11"/>
     </row>
     <row r="625" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G625" s="12"/>
-      <c r="H625" s="13"/>
-      <c r="K625" s="12"/>
+      <c r="G625" s="11"/>
+      <c r="H625" s="12"/>
+      <c r="K625" s="11"/>
     </row>
     <row r="626" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G626" s="12"/>
-      <c r="H626" s="13"/>
-      <c r="K626" s="12"/>
+      <c r="G626" s="11"/>
+      <c r="H626" s="12"/>
+      <c r="K626" s="11"/>
     </row>
     <row r="627" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G627" s="12"/>
-      <c r="H627" s="13"/>
-      <c r="K627" s="12"/>
+      <c r="G627" s="11"/>
+      <c r="H627" s="12"/>
+      <c r="K627" s="11"/>
     </row>
     <row r="628" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G628" s="12"/>
-      <c r="H628" s="13"/>
-      <c r="K628" s="12"/>
+      <c r="G628" s="11"/>
+      <c r="H628" s="12"/>
+      <c r="K628" s="11"/>
     </row>
     <row r="629" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G629" s="12"/>
-      <c r="H629" s="13"/>
-      <c r="K629" s="12"/>
+      <c r="G629" s="11"/>
+      <c r="H629" s="12"/>
+      <c r="K629" s="11"/>
     </row>
     <row r="630" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G630" s="12"/>
-      <c r="H630" s="13"/>
-      <c r="K630" s="12"/>
+      <c r="G630" s="11"/>
+      <c r="H630" s="12"/>
+      <c r="K630" s="11"/>
     </row>
     <row r="631" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G631" s="12"/>
-      <c r="H631" s="13"/>
-      <c r="K631" s="12"/>
+      <c r="G631" s="11"/>
+      <c r="H631" s="12"/>
+      <c r="K631" s="11"/>
     </row>
     <row r="632" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G632" s="12"/>
-      <c r="H632" s="13"/>
-      <c r="K632" s="12"/>
+      <c r="G632" s="11"/>
+      <c r="H632" s="12"/>
+      <c r="K632" s="11"/>
     </row>
     <row r="633" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G633" s="12"/>
-      <c r="H633" s="13"/>
-      <c r="K633" s="12"/>
+      <c r="G633" s="11"/>
+      <c r="H633" s="12"/>
+      <c r="K633" s="11"/>
     </row>
     <row r="634" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G634" s="12"/>
-      <c r="H634" s="13"/>
-      <c r="K634" s="12"/>
+      <c r="G634" s="11"/>
+      <c r="H634" s="12"/>
+      <c r="K634" s="11"/>
     </row>
     <row r="635" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G635" s="12"/>
-      <c r="H635" s="13"/>
-      <c r="K635" s="12"/>
+      <c r="G635" s="11"/>
+      <c r="H635" s="12"/>
+      <c r="K635" s="11"/>
     </row>
     <row r="636" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G636" s="12"/>
-      <c r="H636" s="13"/>
-      <c r="K636" s="12"/>
+      <c r="G636" s="11"/>
+      <c r="H636" s="12"/>
+      <c r="K636" s="11"/>
     </row>
     <row r="637" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G637" s="12"/>
-      <c r="H637" s="13"/>
-      <c r="K637" s="12"/>
+      <c r="G637" s="11"/>
+      <c r="H637" s="12"/>
+      <c r="K637" s="11"/>
     </row>
     <row r="638" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G638" s="12"/>
-      <c r="H638" s="13"/>
-      <c r="K638" s="12"/>
+      <c r="G638" s="11"/>
+      <c r="H638" s="12"/>
+      <c r="K638" s="11"/>
     </row>
     <row r="639" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G639" s="12"/>
-      <c r="H639" s="13"/>
-      <c r="K639" s="12"/>
+      <c r="G639" s="11"/>
+      <c r="H639" s="12"/>
+      <c r="K639" s="11"/>
     </row>
     <row r="640" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G640" s="12"/>
-      <c r="H640" s="13"/>
-      <c r="K640" s="12"/>
+      <c r="G640" s="11"/>
+      <c r="H640" s="12"/>
+      <c r="K640" s="11"/>
     </row>
     <row r="641" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G641" s="12"/>
-      <c r="H641" s="13"/>
-      <c r="K641" s="12"/>
+      <c r="G641" s="11"/>
+      <c r="H641" s="12"/>
+      <c r="K641" s="11"/>
     </row>
     <row r="642" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G642" s="12"/>
-      <c r="H642" s="13"/>
-      <c r="K642" s="12"/>
+      <c r="G642" s="11"/>
+      <c r="H642" s="12"/>
+      <c r="K642" s="11"/>
     </row>
     <row r="643" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G643" s="12"/>
-      <c r="H643" s="13"/>
-      <c r="K643" s="12"/>
+      <c r="G643" s="11"/>
+      <c r="H643" s="12"/>
+      <c r="K643" s="11"/>
     </row>
     <row r="644" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G644" s="12"/>
-      <c r="H644" s="13"/>
-      <c r="K644" s="12"/>
+      <c r="G644" s="11"/>
+      <c r="H644" s="12"/>
+      <c r="K644" s="11"/>
     </row>
     <row r="645" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G645" s="12"/>
-      <c r="H645" s="13"/>
-      <c r="K645" s="12"/>
+      <c r="G645" s="11"/>
+      <c r="H645" s="12"/>
+      <c r="K645" s="11"/>
     </row>
     <row r="646" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G646" s="12"/>
-      <c r="H646" s="13"/>
-      <c r="K646" s="12"/>
+      <c r="G646" s="11"/>
+      <c r="H646" s="12"/>
+      <c r="K646" s="11"/>
     </row>
     <row r="647" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G647" s="12"/>
-      <c r="H647" s="13"/>
-      <c r="K647" s="12"/>
+      <c r="G647" s="11"/>
+      <c r="H647" s="12"/>
+      <c r="K647" s="11"/>
     </row>
     <row r="648" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G648" s="12"/>
-      <c r="H648" s="13"/>
-      <c r="K648" s="12"/>
+      <c r="G648" s="11"/>
+      <c r="H648" s="12"/>
+      <c r="K648" s="11"/>
     </row>
     <row r="649" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G649" s="12"/>
-      <c r="H649" s="13"/>
-      <c r="K649" s="12"/>
+      <c r="G649" s="11"/>
+      <c r="H649" s="12"/>
+      <c r="K649" s="11"/>
     </row>
     <row r="650" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G650" s="12"/>
-      <c r="H650" s="13"/>
-      <c r="K650" s="12"/>
+      <c r="G650" s="11"/>
+      <c r="H650" s="12"/>
+      <c r="K650" s="11"/>
     </row>
     <row r="651" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G651" s="12"/>
-      <c r="H651" s="13"/>
-      <c r="K651" s="12"/>
+      <c r="G651" s="11"/>
+      <c r="H651" s="12"/>
+      <c r="K651" s="11"/>
     </row>
     <row r="652" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G652" s="12"/>
-      <c r="H652" s="13"/>
-      <c r="K652" s="12"/>
+      <c r="G652" s="11"/>
+      <c r="H652" s="12"/>
+      <c r="K652" s="11"/>
     </row>
     <row r="653" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G653" s="12"/>
-      <c r="H653" s="13"/>
-      <c r="K653" s="12"/>
+      <c r="G653" s="11"/>
+      <c r="H653" s="12"/>
+      <c r="K653" s="11"/>
     </row>
     <row r="654" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G654" s="12"/>
-      <c r="H654" s="13"/>
-      <c r="K654" s="12"/>
+      <c r="G654" s="11"/>
+      <c r="H654" s="12"/>
+      <c r="K654" s="11"/>
     </row>
     <row r="655" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G655" s="12"/>
-      <c r="H655" s="13"/>
-      <c r="K655" s="12"/>
+      <c r="G655" s="11"/>
+      <c r="H655" s="12"/>
+      <c r="K655" s="11"/>
     </row>
     <row r="656" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G656" s="12"/>
-      <c r="H656" s="13"/>
-      <c r="K656" s="12"/>
+      <c r="G656" s="11"/>
+      <c r="H656" s="12"/>
+      <c r="K656" s="11"/>
     </row>
     <row r="657" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G657" s="12"/>
-      <c r="H657" s="13"/>
-      <c r="K657" s="12"/>
+      <c r="G657" s="11"/>
+      <c r="H657" s="12"/>
+      <c r="K657" s="11"/>
     </row>
     <row r="658" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G658" s="12"/>
-      <c r="H658" s="13"/>
-      <c r="K658" s="12"/>
+      <c r="G658" s="11"/>
+      <c r="H658" s="12"/>
+      <c r="K658" s="11"/>
     </row>
     <row r="659" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G659" s="12"/>
-      <c r="H659" s="13"/>
-      <c r="K659" s="12"/>
+      <c r="G659" s="11"/>
+      <c r="H659" s="12"/>
+      <c r="K659" s="11"/>
     </row>
     <row r="660" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G660" s="12"/>
-      <c r="H660" s="13"/>
-      <c r="K660" s="12"/>
+      <c r="G660" s="11"/>
+      <c r="H660" s="12"/>
+      <c r="K660" s="11"/>
     </row>
     <row r="661" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G661" s="12"/>
-      <c r="H661" s="13"/>
-      <c r="K661" s="12"/>
+      <c r="G661" s="11"/>
+      <c r="H661" s="12"/>
+      <c r="K661" s="11"/>
     </row>
     <row r="662" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G662" s="12"/>
-      <c r="H662" s="13"/>
-      <c r="K662" s="12"/>
+      <c r="G662" s="11"/>
+      <c r="H662" s="12"/>
+      <c r="K662" s="11"/>
     </row>
     <row r="663" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G663" s="12"/>
-      <c r="H663" s="13"/>
-      <c r="K663" s="12"/>
+      <c r="G663" s="11"/>
+      <c r="H663" s="12"/>
+      <c r="K663" s="11"/>
     </row>
     <row r="664" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G664" s="12"/>
-      <c r="H664" s="13"/>
-      <c r="K664" s="12"/>
+      <c r="G664" s="11"/>
+      <c r="H664" s="12"/>
+      <c r="K664" s="11"/>
     </row>
     <row r="665" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G665" s="12"/>
-      <c r="H665" s="13"/>
-      <c r="K665" s="12"/>
+      <c r="G665" s="11"/>
+      <c r="H665" s="12"/>
+      <c r="K665" s="11"/>
     </row>
     <row r="666" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G666" s="12"/>
-      <c r="H666" s="13"/>
-      <c r="K666" s="12"/>
+      <c r="G666" s="11"/>
+      <c r="H666" s="12"/>
+      <c r="K666" s="11"/>
     </row>
     <row r="667" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G667" s="12"/>
-      <c r="H667" s="13"/>
-      <c r="K667" s="12"/>
+      <c r="G667" s="11"/>
+      <c r="H667" s="12"/>
+      <c r="K667" s="11"/>
     </row>
     <row r="668" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G668" s="12"/>
-      <c r="H668" s="13"/>
-      <c r="K668" s="12"/>
+      <c r="G668" s="11"/>
+      <c r="H668" s="12"/>
+      <c r="K668" s="11"/>
     </row>
     <row r="669" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G669" s="12"/>
-      <c r="H669" s="13"/>
-      <c r="K669" s="12"/>
+      <c r="G669" s="11"/>
+      <c r="H669" s="12"/>
+      <c r="K669" s="11"/>
     </row>
     <row r="670" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G670" s="12"/>
-      <c r="H670" s="13"/>
-      <c r="K670" s="12"/>
+      <c r="G670" s="11"/>
+      <c r="H670" s="12"/>
+      <c r="K670" s="11"/>
     </row>
     <row r="671" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G671" s="12"/>
-      <c r="H671" s="13"/>
-      <c r="K671" s="12"/>
+      <c r="G671" s="11"/>
+      <c r="H671" s="12"/>
+      <c r="K671" s="11"/>
     </row>
     <row r="672" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G672" s="12"/>
-      <c r="H672" s="13"/>
-      <c r="K672" s="12"/>
+      <c r="G672" s="11"/>
+      <c r="H672" s="12"/>
+      <c r="K672" s="11"/>
     </row>
     <row r="673" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G673" s="12"/>
-      <c r="H673" s="13"/>
-      <c r="K673" s="12"/>
+      <c r="G673" s="11"/>
+      <c r="H673" s="12"/>
+      <c r="K673" s="11"/>
     </row>
     <row r="674" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G674" s="12"/>
-      <c r="H674" s="13"/>
-      <c r="K674" s="12"/>
+      <c r="G674" s="11"/>
+      <c r="H674" s="12"/>
+      <c r="K674" s="11"/>
     </row>
     <row r="675" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G675" s="12"/>
-      <c r="H675" s="13"/>
-      <c r="K675" s="12"/>
+      <c r="G675" s="11"/>
+      <c r="H675" s="12"/>
+      <c r="K675" s="11"/>
     </row>
     <row r="676" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G676" s="12"/>
-      <c r="H676" s="13"/>
-      <c r="K676" s="12"/>
+      <c r="G676" s="11"/>
+      <c r="H676" s="12"/>
+      <c r="K676" s="11"/>
     </row>
     <row r="677" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G677" s="12"/>
-      <c r="H677" s="13"/>
-      <c r="K677" s="12"/>
+      <c r="G677" s="11"/>
+      <c r="H677" s="12"/>
+      <c r="K677" s="11"/>
     </row>
     <row r="678" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G678" s="12"/>
-      <c r="H678" s="13"/>
-      <c r="K678" s="12"/>
+      <c r="G678" s="11"/>
+      <c r="H678" s="12"/>
+      <c r="K678" s="11"/>
     </row>
     <row r="679" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G679" s="12"/>
-      <c r="H679" s="13"/>
-      <c r="K679" s="12"/>
+      <c r="G679" s="11"/>
+      <c r="H679" s="12"/>
+      <c r="K679" s="11"/>
     </row>
     <row r="680" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G680" s="12"/>
-      <c r="H680" s="13"/>
-      <c r="K680" s="12"/>
+      <c r="G680" s="11"/>
+      <c r="H680" s="12"/>
+      <c r="K680" s="11"/>
     </row>
     <row r="681" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G681" s="12"/>
-      <c r="H681" s="13"/>
-      <c r="K681" s="12"/>
+      <c r="G681" s="11"/>
+      <c r="H681" s="12"/>
+      <c r="K681" s="11"/>
     </row>
     <row r="682" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G682" s="12"/>
-      <c r="H682" s="13"/>
-      <c r="K682" s="12"/>
+      <c r="G682" s="11"/>
+      <c r="H682" s="12"/>
+      <c r="K682" s="11"/>
     </row>
     <row r="683" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G683" s="12"/>
-      <c r="H683" s="13"/>
-      <c r="K683" s="12"/>
+      <c r="G683" s="11"/>
+      <c r="H683" s="12"/>
+      <c r="K683" s="11"/>
     </row>
     <row r="684" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G684" s="12"/>
-      <c r="H684" s="13"/>
-      <c r="K684" s="12"/>
+      <c r="G684" s="11"/>
+      <c r="H684" s="12"/>
+      <c r="K684" s="11"/>
     </row>
     <row r="685" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G685" s="12"/>
-      <c r="H685" s="13"/>
-      <c r="K685" s="12"/>
+      <c r="G685" s="11"/>
+      <c r="H685" s="12"/>
+      <c r="K685" s="11"/>
     </row>
     <row r="686" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G686" s="12"/>
-      <c r="H686" s="13"/>
-      <c r="K686" s="12"/>
+      <c r="G686" s="11"/>
+      <c r="H686" s="12"/>
+      <c r="K686" s="11"/>
     </row>
     <row r="687" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G687" s="12"/>
-      <c r="H687" s="13"/>
-      <c r="K687" s="12"/>
+      <c r="G687" s="11"/>
+      <c r="H687" s="12"/>
+      <c r="K687" s="11"/>
     </row>
     <row r="688" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G688" s="12"/>
-      <c r="H688" s="13"/>
-      <c r="K688" s="12"/>
+      <c r="G688" s="11"/>
+      <c r="H688" s="12"/>
+      <c r="K688" s="11"/>
     </row>
     <row r="689" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G689" s="12"/>
-      <c r="H689" s="13"/>
-      <c r="K689" s="12"/>
+      <c r="G689" s="11"/>
+      <c r="H689" s="12"/>
+      <c r="K689" s="11"/>
     </row>
     <row r="690" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G690" s="12"/>
-      <c r="H690" s="13"/>
-      <c r="K690" s="12"/>
+      <c r="G690" s="11"/>
+      <c r="H690" s="12"/>
+      <c r="K690" s="11"/>
     </row>
     <row r="691" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G691" s="12"/>
-      <c r="H691" s="13"/>
-      <c r="K691" s="12"/>
+      <c r="G691" s="11"/>
+      <c r="H691" s="12"/>
+      <c r="K691" s="11"/>
     </row>
     <row r="692" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G692" s="12"/>
-      <c r="H692" s="13"/>
-      <c r="K692" s="12"/>
+      <c r="G692" s="11"/>
+      <c r="H692" s="12"/>
+      <c r="K692" s="11"/>
     </row>
     <row r="693" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G693" s="12"/>
-      <c r="H693" s="13"/>
-      <c r="K693" s="12"/>
+      <c r="G693" s="11"/>
+      <c r="H693" s="12"/>
+      <c r="K693" s="11"/>
     </row>
     <row r="694" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G694" s="12"/>
-      <c r="H694" s="13"/>
-      <c r="K694" s="12"/>
+      <c r="G694" s="11"/>
+      <c r="H694" s="12"/>
+      <c r="K694" s="11"/>
     </row>
     <row r="695" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G695" s="12"/>
-      <c r="H695" s="13"/>
-      <c r="K695" s="12"/>
+      <c r="G695" s="11"/>
+      <c r="H695" s="12"/>
+      <c r="K695" s="11"/>
     </row>
     <row r="696" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G696" s="12"/>
-      <c r="H696" s="13"/>
-      <c r="K696" s="12"/>
+      <c r="G696" s="11"/>
+      <c r="H696" s="12"/>
+      <c r="K696" s="11"/>
     </row>
     <row r="697" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G697" s="12"/>
-      <c r="H697" s="13"/>
-      <c r="K697" s="12"/>
+      <c r="G697" s="11"/>
+      <c r="H697" s="12"/>
+      <c r="K697" s="11"/>
     </row>
     <row r="698" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G698" s="12"/>
-      <c r="H698" s="13"/>
-      <c r="K698" s="12"/>
+      <c r="G698" s="11"/>
+      <c r="H698" s="12"/>
+      <c r="K698" s="11"/>
     </row>
     <row r="699" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G699" s="12"/>
-      <c r="H699" s="13"/>
-      <c r="K699" s="12"/>
+      <c r="G699" s="11"/>
+      <c r="H699" s="12"/>
+      <c r="K699" s="11"/>
     </row>
     <row r="700" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G700" s="12"/>
-      <c r="H700" s="13"/>
-      <c r="K700" s="12"/>
+      <c r="G700" s="11"/>
+      <c r="H700" s="12"/>
+      <c r="K700" s="11"/>
     </row>
     <row r="701" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G701" s="12"/>
-      <c r="H701" s="13"/>
-      <c r="K701" s="12"/>
+      <c r="G701" s="11"/>
+      <c r="H701" s="12"/>
+      <c r="K701" s="11"/>
     </row>
     <row r="702" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G702" s="12"/>
-      <c r="H702" s="13"/>
-      <c r="K702" s="12"/>
+      <c r="G702" s="11"/>
+      <c r="H702" s="12"/>
+      <c r="K702" s="11"/>
     </row>
     <row r="703" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G703" s="12"/>
-      <c r="H703" s="13"/>
-      <c r="K703" s="12"/>
+      <c r="G703" s="11"/>
+      <c r="H703" s="12"/>
+      <c r="K703" s="11"/>
     </row>
     <row r="704" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G704" s="12"/>
-      <c r="H704" s="13"/>
-      <c r="K704" s="12"/>
+      <c r="G704" s="11"/>
+      <c r="H704" s="12"/>
+      <c r="K704" s="11"/>
     </row>
     <row r="705" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G705" s="12"/>
-      <c r="H705" s="13"/>
-      <c r="K705" s="12"/>
+      <c r="G705" s="11"/>
+      <c r="H705" s="12"/>
+      <c r="K705" s="11"/>
     </row>
     <row r="706" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G706" s="12"/>
-      <c r="H706" s="13"/>
-      <c r="K706" s="12"/>
+      <c r="G706" s="11"/>
+      <c r="H706" s="12"/>
+      <c r="K706" s="11"/>
     </row>
     <row r="707" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G707" s="12"/>
-      <c r="H707" s="13"/>
-      <c r="K707" s="12"/>
+      <c r="G707" s="11"/>
+      <c r="H707" s="12"/>
+      <c r="K707" s="11"/>
     </row>
     <row r="708" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G708" s="12"/>
-      <c r="H708" s="13"/>
-      <c r="K708" s="12"/>
+      <c r="G708" s="11"/>
+      <c r="H708" s="12"/>
+      <c r="K708" s="11"/>
     </row>
     <row r="709" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G709" s="12"/>
-      <c r="H709" s="13"/>
-      <c r="K709" s="12"/>
+      <c r="G709" s="11"/>
+      <c r="H709" s="12"/>
+      <c r="K709" s="11"/>
     </row>
     <row r="710" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G710" s="12"/>
-      <c r="H710" s="13"/>
-      <c r="K710" s="12"/>
+      <c r="G710" s="11"/>
+      <c r="H710" s="12"/>
+      <c r="K710" s="11"/>
     </row>
     <row r="711" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G711" s="12"/>
-      <c r="H711" s="13"/>
-      <c r="K711" s="12"/>
+      <c r="G711" s="11"/>
+      <c r="H711" s="12"/>
+      <c r="K711" s="11"/>
     </row>
     <row r="712" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G712" s="12"/>
-      <c r="H712" s="13"/>
-      <c r="K712" s="12"/>
+      <c r="G712" s="11"/>
+      <c r="H712" s="12"/>
+      <c r="K712" s="11"/>
     </row>
     <row r="713" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G713" s="12"/>
-      <c r="H713" s="13"/>
-      <c r="K713" s="12"/>
+      <c r="G713" s="11"/>
+      <c r="H713" s="12"/>
+      <c r="K713" s="11"/>
     </row>
     <row r="714" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G714" s="12"/>
-      <c r="H714" s="13"/>
-      <c r="K714" s="12"/>
+      <c r="G714" s="11"/>
+      <c r="H714" s="12"/>
+      <c r="K714" s="11"/>
     </row>
     <row r="715" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G715" s="12"/>
-      <c r="H715" s="13"/>
-      <c r="K715" s="12"/>
+      <c r="G715" s="11"/>
+      <c r="H715" s="12"/>
+      <c r="K715" s="11"/>
     </row>
     <row r="716" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G716" s="12"/>
-      <c r="H716" s="13"/>
-      <c r="K716" s="12"/>
+      <c r="G716" s="11"/>
+      <c r="H716" s="12"/>
+      <c r="K716" s="11"/>
     </row>
     <row r="717" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G717" s="12"/>
-      <c r="H717" s="13"/>
-      <c r="K717" s="12"/>
+      <c r="G717" s="11"/>
+      <c r="H717" s="12"/>
+      <c r="K717" s="11"/>
     </row>
     <row r="718" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G718" s="12"/>
-      <c r="H718" s="13"/>
-      <c r="K718" s="12"/>
+      <c r="G718" s="11"/>
+      <c r="H718" s="12"/>
+      <c r="K718" s="11"/>
     </row>
     <row r="719" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G719" s="12"/>
-      <c r="H719" s="13"/>
-      <c r="K719" s="12"/>
+      <c r="G719" s="11"/>
+      <c r="H719" s="12"/>
+      <c r="K719" s="11"/>
     </row>
     <row r="720" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G720" s="12"/>
-      <c r="H720" s="13"/>
-      <c r="K720" s="12"/>
+      <c r="G720" s="11"/>
+      <c r="H720" s="12"/>
+      <c r="K720" s="11"/>
     </row>
     <row r="721" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G721" s="12"/>
-      <c r="H721" s="13"/>
-      <c r="K721" s="12"/>
+      <c r="G721" s="11"/>
+      <c r="H721" s="12"/>
+      <c r="K721" s="11"/>
     </row>
     <row r="722" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G722" s="12"/>
-      <c r="H722" s="13"/>
-      <c r="K722" s="12"/>
+      <c r="G722" s="11"/>
+      <c r="H722" s="12"/>
+      <c r="K722" s="11"/>
     </row>
     <row r="723" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G723" s="12"/>
-      <c r="H723" s="13"/>
-      <c r="K723" s="12"/>
+      <c r="G723" s="11"/>
+      <c r="H723" s="12"/>
+      <c r="K723" s="11"/>
     </row>
     <row r="724" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G724" s="12"/>
-      <c r="H724" s="13"/>
-      <c r="K724" s="12"/>
+      <c r="G724" s="11"/>
+      <c r="H724" s="12"/>
+      <c r="K724" s="11"/>
     </row>
     <row r="725" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G725" s="12"/>
-      <c r="H725" s="13"/>
-      <c r="K725" s="12"/>
+      <c r="G725" s="11"/>
+      <c r="H725" s="12"/>
+      <c r="K725" s="11"/>
     </row>
     <row r="726" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G726" s="12"/>
-      <c r="H726" s="13"/>
-      <c r="K726" s="12"/>
+      <c r="G726" s="11"/>
+      <c r="H726" s="12"/>
+      <c r="K726" s="11"/>
     </row>
     <row r="727" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G727" s="12"/>
-      <c r="H727" s="13"/>
-      <c r="K727" s="12"/>
+      <c r="G727" s="11"/>
+      <c r="H727" s="12"/>
+      <c r="K727" s="11"/>
     </row>
     <row r="728" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G728" s="12"/>
-      <c r="H728" s="13"/>
-      <c r="K728" s="12"/>
+      <c r="G728" s="11"/>
+      <c r="H728" s="12"/>
+      <c r="K728" s="11"/>
     </row>
     <row r="729" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G729" s="12"/>
-      <c r="H729" s="13"/>
-      <c r="K729" s="12"/>
+      <c r="G729" s="11"/>
+      <c r="H729" s="12"/>
+      <c r="K729" s="11"/>
     </row>
     <row r="730" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G730" s="12"/>
-      <c r="H730" s="13"/>
-      <c r="K730" s="12"/>
+      <c r="G730" s="11"/>
+      <c r="H730" s="12"/>
+      <c r="K730" s="11"/>
     </row>
     <row r="731" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G731" s="12"/>
-      <c r="H731" s="13"/>
-      <c r="K731" s="12"/>
+      <c r="G731" s="11"/>
+      <c r="H731" s="12"/>
+      <c r="K731" s="11"/>
     </row>
     <row r="732" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G732" s="12"/>
-      <c r="H732" s="13"/>
-      <c r="K732" s="12"/>
+      <c r="G732" s="11"/>
+      <c r="H732" s="12"/>
+      <c r="K732" s="11"/>
     </row>
     <row r="733" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G733" s="12"/>
-      <c r="H733" s="13"/>
-      <c r="K733" s="12"/>
+      <c r="G733" s="11"/>
+      <c r="H733" s="12"/>
+      <c r="K733" s="11"/>
     </row>
     <row r="734" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G734" s="12"/>
-      <c r="H734" s="13"/>
-      <c r="K734" s="12"/>
+      <c r="G734" s="11"/>
+      <c r="H734" s="12"/>
+      <c r="K734" s="11"/>
     </row>
     <row r="735" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G735" s="12"/>
-      <c r="H735" s="13"/>
-      <c r="K735" s="12"/>
+      <c r="G735" s="11"/>
+      <c r="H735" s="12"/>
+      <c r="K735" s="11"/>
     </row>
     <row r="736" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G736" s="12"/>
-      <c r="H736" s="13"/>
-      <c r="K736" s="12"/>
+      <c r="G736" s="11"/>
+      <c r="H736" s="12"/>
+      <c r="K736" s="11"/>
     </row>
     <row r="737" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G737" s="12"/>
-      <c r="H737" s="13"/>
-      <c r="K737" s="12"/>
+      <c r="G737" s="11"/>
+      <c r="H737" s="12"/>
+      <c r="K737" s="11"/>
     </row>
     <row r="738" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G738" s="12"/>
-      <c r="H738" s="13"/>
-      <c r="K738" s="12"/>
+      <c r="G738" s="11"/>
+      <c r="H738" s="12"/>
+      <c r="K738" s="11"/>
     </row>
     <row r="739" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G739" s="12"/>
-      <c r="H739" s="13"/>
-      <c r="K739" s="12"/>
+      <c r="G739" s="11"/>
+      <c r="H739" s="12"/>
+      <c r="K739" s="11"/>
     </row>
     <row r="740" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G740" s="12"/>
-      <c r="H740" s="13"/>
-      <c r="K740" s="12"/>
+      <c r="G740" s="11"/>
+      <c r="H740" s="12"/>
+      <c r="K740" s="11"/>
     </row>
     <row r="741" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G741" s="12"/>
-      <c r="H741" s="13"/>
-      <c r="K741" s="12"/>
+      <c r="G741" s="11"/>
+      <c r="H741" s="12"/>
+      <c r="K741" s="11"/>
     </row>
     <row r="742" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G742" s="12"/>
-      <c r="H742" s="13"/>
-      <c r="K742" s="12"/>
+      <c r="G742" s="11"/>
+      <c r="H742" s="12"/>
+      <c r="K742" s="11"/>
     </row>
     <row r="743" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G743" s="12"/>
-      <c r="H743" s="13"/>
-      <c r="K743" s="12"/>
+      <c r="G743" s="11"/>
+      <c r="H743" s="12"/>
+      <c r="K743" s="11"/>
     </row>
     <row r="744" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G744" s="12"/>
-      <c r="H744" s="13"/>
-      <c r="K744" s="12"/>
+      <c r="G744" s="11"/>
+      <c r="H744" s="12"/>
+      <c r="K744" s="11"/>
     </row>
     <row r="745" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G745" s="12"/>
-      <c r="H745" s="13"/>
-      <c r="K745" s="12"/>
+      <c r="G745" s="11"/>
+      <c r="H745" s="12"/>
+      <c r="K745" s="11"/>
     </row>
     <row r="746" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G746" s="12"/>
-      <c r="H746" s="13"/>
-      <c r="K746" s="12"/>
+      <c r="G746" s="11"/>
+      <c r="H746" s="12"/>
+      <c r="K746" s="11"/>
     </row>
     <row r="747" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G747" s="12"/>
-      <c r="H747" s="13"/>
-      <c r="K747" s="12"/>
+      <c r="G747" s="11"/>
+      <c r="H747" s="12"/>
+      <c r="K747" s="11"/>
     </row>
     <row r="748" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G748" s="12"/>
-      <c r="H748" s="13"/>
-      <c r="K748" s="12"/>
+      <c r="G748" s="11"/>
+      <c r="H748" s="12"/>
+      <c r="K748" s="11"/>
     </row>
     <row r="749" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G749" s="12"/>
-      <c r="H749" s="13"/>
-      <c r="K749" s="12"/>
+      <c r="G749" s="11"/>
+      <c r="H749" s="12"/>
+      <c r="K749" s="11"/>
     </row>
     <row r="750" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G750" s="12"/>
-      <c r="H750" s="13"/>
-      <c r="K750" s="12"/>
+      <c r="G750" s="11"/>
+      <c r="H750" s="12"/>
+      <c r="K750" s="11"/>
     </row>
     <row r="751" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G751" s="12"/>
-      <c r="H751" s="13"/>
-      <c r="K751" s="12"/>
+      <c r="G751" s="11"/>
+      <c r="H751" s="12"/>
+      <c r="K751" s="11"/>
     </row>
     <row r="752" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G752" s="12"/>
-      <c r="H752" s="13"/>
-      <c r="K752" s="12"/>
+      <c r="G752" s="11"/>
+      <c r="H752" s="12"/>
+      <c r="K752" s="11"/>
     </row>
     <row r="753" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G753" s="12"/>
-      <c r="H753" s="13"/>
-      <c r="K753" s="12"/>
+      <c r="G753" s="11"/>
+      <c r="H753" s="12"/>
+      <c r="K753" s="11"/>
     </row>
     <row r="754" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G754" s="12"/>
-      <c r="H754" s="13"/>
-      <c r="K754" s="12"/>
+      <c r="G754" s="11"/>
+      <c r="H754" s="12"/>
+      <c r="K754" s="11"/>
     </row>
     <row r="755" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G755" s="12"/>
-      <c r="H755" s="13"/>
-      <c r="K755" s="12"/>
+      <c r="G755" s="11"/>
+      <c r="H755" s="12"/>
+      <c r="K755" s="11"/>
     </row>
     <row r="756" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G756" s="12"/>
-      <c r="H756" s="13"/>
-      <c r="K756" s="12"/>
+      <c r="G756" s="11"/>
+      <c r="H756" s="12"/>
+      <c r="K756" s="11"/>
     </row>
     <row r="757" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G757" s="12"/>
-      <c r="H757" s="13"/>
-      <c r="K757" s="12"/>
+      <c r="G757" s="11"/>
+      <c r="H757" s="12"/>
+      <c r="K757" s="11"/>
     </row>
     <row r="758" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G758" s="12"/>
-      <c r="H758" s="13"/>
-      <c r="K758" s="12"/>
+      <c r="G758" s="11"/>
+      <c r="H758" s="12"/>
+      <c r="K758" s="11"/>
     </row>
     <row r="759" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G759" s="12"/>
-      <c r="H759" s="13"/>
-      <c r="K759" s="12"/>
+      <c r="G759" s="11"/>
+      <c r="H759" s="12"/>
+      <c r="K759" s="11"/>
     </row>
     <row r="760" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G760" s="12"/>
-      <c r="H760" s="13"/>
-      <c r="K760" s="12"/>
+      <c r="G760" s="11"/>
+      <c r="H760" s="12"/>
+      <c r="K760" s="11"/>
     </row>
     <row r="761" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G761" s="12"/>
-      <c r="H761" s="13"/>
-      <c r="K761" s="12"/>
+      <c r="G761" s="11"/>
+      <c r="H761" s="12"/>
+      <c r="K761" s="11"/>
     </row>
     <row r="762" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G762" s="12"/>
-      <c r="H762" s="13"/>
-      <c r="K762" s="12"/>
+      <c r="G762" s="11"/>
+      <c r="H762" s="12"/>
+      <c r="K762" s="11"/>
     </row>
     <row r="763" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G763" s="12"/>
-      <c r="H763" s="13"/>
-      <c r="K763" s="12"/>
+      <c r="G763" s="11"/>
+      <c r="H763" s="12"/>
+      <c r="K763" s="11"/>
     </row>
     <row r="764" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G764" s="12"/>
-      <c r="H764" s="13"/>
-      <c r="K764" s="12"/>
+      <c r="G764" s="11"/>
+      <c r="H764" s="12"/>
+      <c r="K764" s="11"/>
     </row>
     <row r="765" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G765" s="12"/>
-      <c r="H765" s="13"/>
-      <c r="K765" s="12"/>
+      <c r="G765" s="11"/>
+      <c r="H765" s="12"/>
+      <c r="K765" s="11"/>
     </row>
     <row r="766" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G766" s="12"/>
-      <c r="H766" s="13"/>
-      <c r="K766" s="12"/>
+      <c r="G766" s="11"/>
+      <c r="H766" s="12"/>
+      <c r="K766" s="11"/>
     </row>
     <row r="767" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G767" s="12"/>
-      <c r="H767" s="13"/>
-      <c r="K767" s="12"/>
+      <c r="G767" s="11"/>
+      <c r="H767" s="12"/>
+      <c r="K767" s="11"/>
     </row>
     <row r="768" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G768" s="12"/>
-      <c r="H768" s="13"/>
-      <c r="K768" s="12"/>
+      <c r="G768" s="11"/>
+      <c r="H768" s="12"/>
+      <c r="K768" s="11"/>
     </row>
     <row r="769" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G769" s="12"/>
-      <c r="H769" s="13"/>
-      <c r="K769" s="12"/>
+      <c r="G769" s="11"/>
+      <c r="H769" s="12"/>
+      <c r="K769" s="11"/>
     </row>
     <row r="770" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G770" s="12"/>
-      <c r="H770" s="13"/>
-      <c r="K770" s="12"/>
+      <c r="G770" s="11"/>
+      <c r="H770" s="12"/>
+      <c r="K770" s="11"/>
     </row>
     <row r="771" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G771" s="12"/>
-      <c r="H771" s="13"/>
-      <c r="K771" s="12"/>
+      <c r="G771" s="11"/>
+      <c r="H771" s="12"/>
+      <c r="K771" s="11"/>
     </row>
     <row r="772" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G772" s="12"/>
-      <c r="H772" s="13"/>
-      <c r="K772" s="12"/>
+      <c r="G772" s="11"/>
+      <c r="H772" s="12"/>
+      <c r="K772" s="11"/>
     </row>
     <row r="773" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G773" s="12"/>
-      <c r="H773" s="13"/>
-      <c r="K773" s="12"/>
+      <c r="G773" s="11"/>
+      <c r="H773" s="12"/>
+      <c r="K773" s="11"/>
     </row>
     <row r="774" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G774" s="12"/>
-      <c r="H774" s="13"/>
-      <c r="K774" s="12"/>
+      <c r="G774" s="11"/>
+      <c r="H774" s="12"/>
+      <c r="K774" s="11"/>
     </row>
     <row r="775" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G775" s="12"/>
-      <c r="H775" s="13"/>
-      <c r="K775" s="12"/>
+      <c r="G775" s="11"/>
+      <c r="H775" s="12"/>
+      <c r="K775" s="11"/>
     </row>
     <row r="776" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G776" s="12"/>
-      <c r="H776" s="13"/>
-      <c r="K776" s="12"/>
+      <c r="G776" s="11"/>
+      <c r="H776" s="12"/>
+      <c r="K776" s="11"/>
     </row>
     <row r="777" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G777" s="12"/>
-      <c r="H777" s="13"/>
-      <c r="K777" s="12"/>
+      <c r="G777" s="11"/>
+      <c r="H777" s="12"/>
+      <c r="K777" s="11"/>
     </row>
     <row r="778" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G778" s="12"/>
-      <c r="H778" s="13"/>
-      <c r="K778" s="12"/>
+      <c r="G778" s="11"/>
+      <c r="H778" s="12"/>
+      <c r="K778" s="11"/>
     </row>
     <row r="779" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G779" s="12"/>
-      <c r="H779" s="13"/>
-      <c r="K779" s="12"/>
+      <c r="G779" s="11"/>
+      <c r="H779" s="12"/>
+      <c r="K779" s="11"/>
     </row>
     <row r="780" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G780" s="12"/>
-      <c r="H780" s="13"/>
-      <c r="K780" s="12"/>
+      <c r="G780" s="11"/>
+      <c r="H780" s="12"/>
+      <c r="K780" s="11"/>
     </row>
     <row r="781" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G781" s="12"/>
-      <c r="H781" s="13"/>
-      <c r="K781" s="12"/>
+      <c r="G781" s="11"/>
+      <c r="H781" s="12"/>
+      <c r="K781" s="11"/>
     </row>
     <row r="782" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G782" s="12"/>
-      <c r="H782" s="13"/>
-      <c r="K782" s="12"/>
+      <c r="G782" s="11"/>
+      <c r="H782" s="12"/>
+      <c r="K782" s="11"/>
     </row>
     <row r="783" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G783" s="12"/>
-      <c r="H783" s="13"/>
-      <c r="K783" s="12"/>
+      <c r="G783" s="11"/>
+      <c r="H783" s="12"/>
+      <c r="K783" s="11"/>
     </row>
     <row r="784" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G784" s="12"/>
-      <c r="H784" s="13"/>
-      <c r="K784" s="12"/>
+      <c r="G784" s="11"/>
+      <c r="H784" s="12"/>
+      <c r="K784" s="11"/>
     </row>
     <row r="785" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G785" s="12"/>
-      <c r="H785" s="13"/>
-      <c r="K785" s="12"/>
+      <c r="G785" s="11"/>
+      <c r="H785" s="12"/>
+      <c r="K785" s="11"/>
     </row>
     <row r="786" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G786" s="12"/>
-      <c r="H786" s="13"/>
-      <c r="K786" s="12"/>
+      <c r="G786" s="11"/>
+      <c r="H786" s="12"/>
+      <c r="K786" s="11"/>
     </row>
     <row r="787" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G787" s="12"/>
-      <c r="H787" s="13"/>
-      <c r="K787" s="12"/>
+      <c r="G787" s="11"/>
+      <c r="H787" s="12"/>
+      <c r="K787" s="11"/>
     </row>
     <row r="788" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G788" s="12"/>
-      <c r="H788" s="13"/>
-      <c r="K788" s="12"/>
+      <c r="G788" s="11"/>
+      <c r="H788" s="12"/>
+      <c r="K788" s="11"/>
     </row>
     <row r="789" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G789" s="12"/>
-      <c r="H789" s="13"/>
-      <c r="K789" s="12"/>
+      <c r="G789" s="11"/>
+      <c r="H789" s="12"/>
+      <c r="K789" s="11"/>
     </row>
     <row r="790" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G790" s="12"/>
-      <c r="H790" s="13"/>
-      <c r="K790" s="12"/>
+      <c r="G790" s="11"/>
+      <c r="H790" s="12"/>
+      <c r="K790" s="11"/>
     </row>
     <row r="791" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G791" s="12"/>
-      <c r="H791" s="13"/>
-      <c r="K791" s="12"/>
+      <c r="G791" s="11"/>
+      <c r="H791" s="12"/>
+      <c r="K791" s="11"/>
     </row>
     <row r="792" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G792" s="12"/>
-      <c r="H792" s="13"/>
-      <c r="K792" s="12"/>
+      <c r="G792" s="11"/>
+      <c r="H792" s="12"/>
+      <c r="K792" s="11"/>
     </row>
     <row r="793" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G793" s="12"/>
-      <c r="H793" s="13"/>
-      <c r="K793" s="12"/>
+      <c r="G793" s="11"/>
+      <c r="H793" s="12"/>
+      <c r="K793" s="11"/>
     </row>
     <row r="794" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G794" s="12"/>
-      <c r="H794" s="13"/>
-      <c r="K794" s="12"/>
+      <c r="G794" s="11"/>
+      <c r="H794" s="12"/>
+      <c r="K794" s="11"/>
     </row>
     <row r="795" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G795" s="12"/>
-      <c r="H795" s="13"/>
-      <c r="K795" s="12"/>
+      <c r="G795" s="11"/>
+      <c r="H795" s="12"/>
+      <c r="K795" s="11"/>
     </row>
     <row r="796" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G796" s="12"/>
-      <c r="H796" s="13"/>
-      <c r="K796" s="12"/>
+      <c r="G796" s="11"/>
+      <c r="H796" s="12"/>
+      <c r="K796" s="11"/>
     </row>
     <row r="797" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G797" s="12"/>
-      <c r="H797" s="13"/>
-      <c r="K797" s="12"/>
+      <c r="G797" s="11"/>
+      <c r="H797" s="12"/>
+      <c r="K797" s="11"/>
     </row>
     <row r="798" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G798" s="12"/>
-      <c r="H798" s="13"/>
-      <c r="K798" s="12"/>
+      <c r="G798" s="11"/>
+      <c r="H798" s="12"/>
+      <c r="K798" s="11"/>
     </row>
     <row r="799" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G799" s="12"/>
-      <c r="H799" s="13"/>
-      <c r="K799" s="12"/>
+      <c r="G799" s="11"/>
+      <c r="H799" s="12"/>
+      <c r="K799" s="11"/>
     </row>
     <row r="800" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G800" s="12"/>
-      <c r="H800" s="13"/>
-      <c r="K800" s="12"/>
+      <c r="G800" s="11"/>
+      <c r="H800" s="12"/>
+      <c r="K800" s="11"/>
     </row>
     <row r="801" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G801" s="12"/>
-      <c r="H801" s="13"/>
-      <c r="K801" s="12"/>
+      <c r="G801" s="11"/>
+      <c r="H801" s="12"/>
+      <c r="K801" s="11"/>
     </row>
     <row r="802" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G802" s="12"/>
-      <c r="H802" s="13"/>
-      <c r="K802" s="12"/>
+      <c r="G802" s="11"/>
+      <c r="H802" s="12"/>
+      <c r="K802" s="11"/>
     </row>
     <row r="803" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G803" s="12"/>
-      <c r="H803" s="13"/>
-      <c r="K803" s="12"/>
+      <c r="G803" s="11"/>
+      <c r="H803" s="12"/>
+      <c r="K803" s="11"/>
     </row>
     <row r="804" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G804" s="12"/>
-      <c r="H804" s="13"/>
-      <c r="K804" s="12"/>
+      <c r="G804" s="11"/>
+      <c r="H804" s="12"/>
+      <c r="K804" s="11"/>
     </row>
     <row r="805" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G805" s="12"/>
-      <c r="H805" s="13"/>
-      <c r="K805" s="12"/>
+      <c r="G805" s="11"/>
+      <c r="H805" s="12"/>
+      <c r="K805" s="11"/>
     </row>
     <row r="806" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G806" s="12"/>
-      <c r="H806" s="13"/>
-      <c r="K806" s="12"/>
+      <c r="G806" s="11"/>
+      <c r="H806" s="12"/>
+      <c r="K806" s="11"/>
     </row>
     <row r="807" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G807" s="12"/>
-      <c r="H807" s="13"/>
-      <c r="K807" s="12"/>
+      <c r="G807" s="11"/>
+      <c r="H807" s="12"/>
+      <c r="K807" s="11"/>
     </row>
     <row r="808" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G808" s="12"/>
-      <c r="H808" s="13"/>
-      <c r="K808" s="12"/>
+      <c r="G808" s="11"/>
+      <c r="H808" s="12"/>
+      <c r="K808" s="11"/>
     </row>
     <row r="809" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G809" s="12"/>
-      <c r="H809" s="13"/>
-      <c r="K809" s="12"/>
+      <c r="G809" s="11"/>
+      <c r="H809" s="12"/>
+      <c r="K809" s="11"/>
     </row>
     <row r="810" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G810" s="12"/>
-      <c r="H810" s="13"/>
-      <c r="K810" s="12"/>
+      <c r="G810" s="11"/>
+      <c r="H810" s="12"/>
+      <c r="K810" s="11"/>
     </row>
     <row r="811" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G811" s="12"/>
-      <c r="H811" s="13"/>
-      <c r="K811" s="12"/>
+      <c r="G811" s="11"/>
+      <c r="H811" s="12"/>
+      <c r="K811" s="11"/>
     </row>
     <row r="812" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G812" s="12"/>
-      <c r="H812" s="13"/>
-      <c r="K812" s="12"/>
+      <c r="G812" s="11"/>
+      <c r="H812" s="12"/>
+      <c r="K812" s="11"/>
     </row>
     <row r="813" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G813" s="12"/>
-      <c r="H813" s="13"/>
-      <c r="K813" s="12"/>
+      <c r="G813" s="11"/>
+      <c r="H813" s="12"/>
+      <c r="K813" s="11"/>
     </row>
     <row r="814" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G814" s="12"/>
-      <c r="H814" s="13"/>
-      <c r="K814" s="12"/>
+      <c r="G814" s="11"/>
+      <c r="H814" s="12"/>
+      <c r="K814" s="11"/>
     </row>
     <row r="815" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G815" s="12"/>
-      <c r="H815" s="13"/>
-      <c r="K815" s="12"/>
+      <c r="G815" s="11"/>
+      <c r="H815" s="12"/>
+      <c r="K815" s="11"/>
     </row>
     <row r="816" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G816" s="12"/>
-      <c r="H816" s="13"/>
-      <c r="K816" s="12"/>
+      <c r="G816" s="11"/>
+      <c r="H816" s="12"/>
+      <c r="K816" s="11"/>
     </row>
     <row r="817" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G817" s="12"/>
-      <c r="H817" s="13"/>
-      <c r="K817" s="12"/>
+      <c r="G817" s="11"/>
+      <c r="H817" s="12"/>
+      <c r="K817" s="11"/>
     </row>
     <row r="818" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G818" s="12"/>
-      <c r="H818" s="13"/>
-      <c r="K818" s="12"/>
+      <c r="G818" s="11"/>
+      <c r="H818" s="12"/>
+      <c r="K818" s="11"/>
     </row>
     <row r="819" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G819" s="12"/>
-      <c r="H819" s="13"/>
-      <c r="K819" s="12"/>
+      <c r="G819" s="11"/>
+      <c r="H819" s="12"/>
+      <c r="K819" s="11"/>
     </row>
     <row r="820" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G820" s="12"/>
-      <c r="H820" s="13"/>
-      <c r="K820" s="12"/>
+      <c r="G820" s="11"/>
+      <c r="H820" s="12"/>
+      <c r="K820" s="11"/>
     </row>
     <row r="821" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G821" s="12"/>
-      <c r="H821" s="13"/>
-      <c r="K821" s="12"/>
+      <c r="G821" s="11"/>
+      <c r="H821" s="12"/>
+      <c r="K821" s="11"/>
     </row>
     <row r="822" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G822" s="12"/>
-      <c r="H822" s="13"/>
-      <c r="K822" s="12"/>
+      <c r="G822" s="11"/>
+      <c r="H822" s="12"/>
+      <c r="K822" s="11"/>
     </row>
     <row r="823" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G823" s="12"/>
-      <c r="H823" s="13"/>
-      <c r="K823" s="12"/>
+      <c r="G823" s="11"/>
+      <c r="H823" s="12"/>
+      <c r="K823" s="11"/>
     </row>
     <row r="824" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G824" s="12"/>
-      <c r="H824" s="13"/>
-      <c r="K824" s="12"/>
+      <c r="G824" s="11"/>
+      <c r="H824" s="12"/>
+      <c r="K824" s="11"/>
     </row>
     <row r="825" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G825" s="12"/>
-      <c r="H825" s="13"/>
-      <c r="K825" s="12"/>
+      <c r="G825" s="11"/>
+      <c r="H825" s="12"/>
+      <c r="K825" s="11"/>
     </row>
     <row r="826" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G826" s="12"/>
-      <c r="H826" s="13"/>
-      <c r="K826" s="12"/>
+      <c r="G826" s="11"/>
+      <c r="H826" s="12"/>
+      <c r="K826" s="11"/>
     </row>
     <row r="827" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G827" s="12"/>
-      <c r="H827" s="13"/>
-      <c r="K827" s="12"/>
+      <c r="G827" s="11"/>
+      <c r="H827" s="12"/>
+      <c r="K827" s="11"/>
     </row>
     <row r="828" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G828" s="12"/>
-      <c r="H828" s="13"/>
-      <c r="K828" s="12"/>
+      <c r="G828" s="11"/>
+      <c r="H828" s="12"/>
+      <c r="K828" s="11"/>
     </row>
     <row r="829" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G829" s="12"/>
-      <c r="H829" s="13"/>
-      <c r="K829" s="12"/>
+      <c r="G829" s="11"/>
+      <c r="H829" s="12"/>
+      <c r="K829" s="11"/>
     </row>
     <row r="830" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G830" s="12"/>
-      <c r="H830" s="13"/>
-      <c r="K830" s="12"/>
+      <c r="G830" s="11"/>
+      <c r="H830" s="12"/>
+      <c r="K830" s="11"/>
     </row>
     <row r="831" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G831" s="12"/>
-      <c r="H831" s="13"/>
-      <c r="K831" s="12"/>
+      <c r="G831" s="11"/>
+      <c r="H831" s="12"/>
+      <c r="K831" s="11"/>
     </row>
     <row r="832" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G832" s="12"/>
-      <c r="H832" s="13"/>
-      <c r="K832" s="12"/>
+      <c r="G832" s="11"/>
+      <c r="H832" s="12"/>
+      <c r="K832" s="11"/>
     </row>
     <row r="833" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G833" s="12"/>
-      <c r="H833" s="13"/>
-      <c r="K833" s="12"/>
+      <c r="G833" s="11"/>
+      <c r="H833" s="12"/>
+      <c r="K833" s="11"/>
     </row>
     <row r="834" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G834" s="12"/>
-      <c r="H834" s="13"/>
-      <c r="K834" s="12"/>
+      <c r="G834" s="11"/>
+      <c r="H834" s="12"/>
+      <c r="K834" s="11"/>
     </row>
     <row r="835" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G835" s="12"/>
-      <c r="H835" s="13"/>
-      <c r="K835" s="12"/>
+      <c r="G835" s="11"/>
+      <c r="H835" s="12"/>
+      <c r="K835" s="11"/>
     </row>
     <row r="836" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G836" s="12"/>
-      <c r="H836" s="13"/>
-      <c r="K836" s="12"/>
+      <c r="G836" s="11"/>
+      <c r="H836" s="12"/>
+      <c r="K836" s="11"/>
     </row>
     <row r="837" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G837" s="12"/>
-      <c r="H837" s="13"/>
-      <c r="K837" s="12"/>
+      <c r="G837" s="11"/>
+      <c r="H837" s="12"/>
+      <c r="K837" s="11"/>
     </row>
     <row r="838" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G838" s="12"/>
-      <c r="H838" s="13"/>
-      <c r="K838" s="12"/>
+      <c r="G838" s="11"/>
+      <c r="H838" s="12"/>
+      <c r="K838" s="11"/>
     </row>
     <row r="839" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G839" s="12"/>
-      <c r="H839" s="13"/>
-      <c r="K839" s="12"/>
+      <c r="G839" s="11"/>
+      <c r="H839" s="12"/>
+      <c r="K839" s="11"/>
     </row>
     <row r="840" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G840" s="12"/>
-      <c r="H840" s="13"/>
-      <c r="K840" s="12"/>
+      <c r="G840" s="11"/>
+      <c r="H840" s="12"/>
+      <c r="K840" s="11"/>
     </row>
     <row r="841" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G841" s="12"/>
-      <c r="H841" s="13"/>
-      <c r="K841" s="12"/>
+      <c r="G841" s="11"/>
+      <c r="H841" s="12"/>
+      <c r="K841" s="11"/>
     </row>
     <row r="842" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G842" s="12"/>
-      <c r="H842" s="13"/>
-      <c r="K842" s="12"/>
+      <c r="G842" s="11"/>
+      <c r="H842" s="12"/>
+      <c r="K842" s="11"/>
     </row>
     <row r="843" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G843" s="12"/>
-      <c r="H843" s="13"/>
-      <c r="K843" s="12"/>
+      <c r="G843" s="11"/>
+      <c r="H843" s="12"/>
+      <c r="K843" s="11"/>
     </row>
     <row r="844" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G844" s="12"/>
-      <c r="H844" s="13"/>
-      <c r="K844" s="12"/>
+      <c r="G844" s="11"/>
+      <c r="H844" s="12"/>
+      <c r="K844" s="11"/>
     </row>
     <row r="845" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G845" s="12"/>
-      <c r="H845" s="13"/>
-      <c r="K845" s="12"/>
+      <c r="G845" s="11"/>
+      <c r="H845" s="12"/>
+      <c r="K845" s="11"/>
     </row>
     <row r="846" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G846" s="12"/>
-      <c r="H846" s="13"/>
-      <c r="K846" s="12"/>
+      <c r="G846" s="11"/>
+      <c r="H846" s="12"/>
+      <c r="K846" s="11"/>
     </row>
     <row r="847" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G847" s="12"/>
-      <c r="H847" s="13"/>
-      <c r="K847" s="12"/>
+      <c r="G847" s="11"/>
+      <c r="H847" s="12"/>
+      <c r="K847" s="11"/>
     </row>
     <row r="848" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G848" s="12"/>
-      <c r="H848" s="13"/>
-      <c r="K848" s="12"/>
+      <c r="G848" s="11"/>
+      <c r="H848" s="12"/>
+      <c r="K848" s="11"/>
     </row>
     <row r="849" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G849" s="12"/>
-      <c r="H849" s="13"/>
-      <c r="K849" s="12"/>
+      <c r="G849" s="11"/>
+      <c r="H849" s="12"/>
+      <c r="K849" s="11"/>
     </row>
     <row r="850" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G850" s="12"/>
-      <c r="H850" s="13"/>
-      <c r="K850" s="12"/>
+      <c r="G850" s="11"/>
+      <c r="H850" s="12"/>
+      <c r="K850" s="11"/>
     </row>
     <row r="851" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G851" s="12"/>
-      <c r="H851" s="13"/>
-      <c r="K851" s="12"/>
+      <c r="G851" s="11"/>
+      <c r="H851" s="12"/>
+      <c r="K851" s="11"/>
     </row>
     <row r="852" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G852" s="12"/>
-      <c r="H852" s="13"/>
-      <c r="K852" s="12"/>
+      <c r="G852" s="11"/>
+      <c r="H852" s="12"/>
+      <c r="K852" s="11"/>
     </row>
     <row r="853" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G853" s="12"/>
-      <c r="H853" s="13"/>
-      <c r="K853" s="12"/>
+      <c r="G853" s="11"/>
+      <c r="H853" s="12"/>
+      <c r="K853" s="11"/>
     </row>
     <row r="854" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G854" s="12"/>
-      <c r="H854" s="13"/>
-      <c r="K854" s="12"/>
+      <c r="G854" s="11"/>
+      <c r="H854" s="12"/>
+      <c r="K854" s="11"/>
     </row>
     <row r="855" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G855" s="12"/>
-      <c r="H855" s="13"/>
-      <c r="K855" s="12"/>
+      <c r="G855" s="11"/>
+      <c r="H855" s="12"/>
+      <c r="K855" s="11"/>
     </row>
     <row r="856" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G856" s="12"/>
-      <c r="H856" s="13"/>
-      <c r="K856" s="12"/>
+      <c r="G856" s="11"/>
+      <c r="H856" s="12"/>
+      <c r="K856" s="11"/>
     </row>
     <row r="857" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G857" s="12"/>
-      <c r="H857" s="13"/>
-      <c r="K857" s="12"/>
+      <c r="G857" s="11"/>
+      <c r="H857" s="12"/>
+      <c r="K857" s="11"/>
     </row>
     <row r="858" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G858" s="12"/>
-      <c r="H858" s="13"/>
-      <c r="K858" s="12"/>
+      <c r="G858" s="11"/>
+      <c r="H858" s="12"/>
+      <c r="K858" s="11"/>
     </row>
     <row r="859" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G859" s="12"/>
-      <c r="H859" s="13"/>
-      <c r="K859" s="12"/>
+      <c r="G859" s="11"/>
+      <c r="H859" s="12"/>
+      <c r="K859" s="11"/>
     </row>
     <row r="860" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G860" s="12"/>
-      <c r="H860" s="13"/>
-      <c r="K860" s="12"/>
+      <c r="G860" s="11"/>
+      <c r="H860" s="12"/>
+      <c r="K860" s="11"/>
     </row>
     <row r="861" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G861" s="12"/>
-      <c r="H861" s="13"/>
-      <c r="K861" s="12"/>
+      <c r="G861" s="11"/>
+      <c r="H861" s="12"/>
+      <c r="K861" s="11"/>
     </row>
     <row r="862" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G862" s="12"/>
-      <c r="H862" s="13"/>
-      <c r="K862" s="12"/>
+      <c r="G862" s="11"/>
+      <c r="H862" s="12"/>
+      <c r="K862" s="11"/>
     </row>
     <row r="863" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G863" s="12"/>
-      <c r="H863" s="13"/>
-      <c r="K863" s="12"/>
+      <c r="G863" s="11"/>
+      <c r="H863" s="12"/>
+      <c r="K863" s="11"/>
     </row>
     <row r="864" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G864" s="12"/>
-      <c r="H864" s="13"/>
-      <c r="K864" s="12"/>
+      <c r="G864" s="11"/>
+      <c r="H864" s="12"/>
+      <c r="K864" s="11"/>
     </row>
     <row r="865" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G865" s="12"/>
-      <c r="H865" s="13"/>
-      <c r="K865" s="12"/>
+      <c r="G865" s="11"/>
+      <c r="H865" s="12"/>
+      <c r="K865" s="11"/>
     </row>
     <row r="866" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G866" s="12"/>
-      <c r="H866" s="13"/>
-      <c r="K866" s="12"/>
+      <c r="G866" s="11"/>
+      <c r="H866" s="12"/>
+      <c r="K866" s="11"/>
     </row>
     <row r="867" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G867" s="12"/>
-      <c r="H867" s="13"/>
-      <c r="K867" s="12"/>
+      <c r="G867" s="11"/>
+      <c r="H867" s="12"/>
+      <c r="K867" s="11"/>
     </row>
     <row r="868" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G868" s="12"/>
-      <c r="H868" s="13"/>
-      <c r="K868" s="12"/>
+      <c r="G868" s="11"/>
+      <c r="H868" s="12"/>
+      <c r="K868" s="11"/>
     </row>
     <row r="869" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G869" s="12"/>
-      <c r="H869" s="13"/>
-      <c r="K869" s="12"/>
+      <c r="G869" s="11"/>
+      <c r="H869" s="12"/>
+      <c r="K869" s="11"/>
     </row>
     <row r="870" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G870" s="12"/>
-      <c r="H870" s="13"/>
-      <c r="K870" s="12"/>
+      <c r="G870" s="11"/>
+      <c r="H870" s="12"/>
+      <c r="K870" s="11"/>
     </row>
     <row r="871" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G871" s="12"/>
-      <c r="H871" s="13"/>
-      <c r="K871" s="12"/>
+      <c r="G871" s="11"/>
+      <c r="H871" s="12"/>
+      <c r="K871" s="11"/>
     </row>
     <row r="872" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G872" s="12"/>
-      <c r="H872" s="13"/>
-      <c r="K872" s="12"/>
+      <c r="G872" s="11"/>
+      <c r="H872" s="12"/>
+      <c r="K872" s="11"/>
     </row>
     <row r="873" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G873" s="12"/>
-      <c r="H873" s="13"/>
-      <c r="K873" s="12"/>
+      <c r="G873" s="11"/>
+      <c r="H873" s="12"/>
+      <c r="K873" s="11"/>
     </row>
     <row r="874" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G874" s="12"/>
-      <c r="H874" s="13"/>
-      <c r="K874" s="12"/>
+      <c r="G874" s="11"/>
+      <c r="H874" s="12"/>
+      <c r="K874" s="11"/>
     </row>
     <row r="875" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G875" s="12"/>
-      <c r="H875" s="13"/>
-      <c r="K875" s="12"/>
+      <c r="G875" s="11"/>
+      <c r="H875" s="12"/>
+      <c r="K875" s="11"/>
     </row>
     <row r="876" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G876" s="12"/>
-      <c r="H876" s="13"/>
-      <c r="K876" s="12"/>
+      <c r="G876" s="11"/>
+      <c r="H876" s="12"/>
+      <c r="K876" s="11"/>
     </row>
     <row r="877" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G877" s="12"/>
-      <c r="H877" s="13"/>
-      <c r="K877" s="12"/>
+      <c r="G877" s="11"/>
+      <c r="H877" s="12"/>
+      <c r="K877" s="11"/>
     </row>
     <row r="878" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G878" s="12"/>
-      <c r="H878" s="13"/>
-      <c r="K878" s="12"/>
+      <c r="G878" s="11"/>
+      <c r="H878" s="12"/>
+      <c r="K878" s="11"/>
     </row>
     <row r="879" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G879" s="12"/>
-      <c r="H879" s="13"/>
-      <c r="K879" s="12"/>
+      <c r="G879" s="11"/>
+      <c r="H879" s="12"/>
+      <c r="K879" s="11"/>
     </row>
     <row r="880" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G880" s="12"/>
-      <c r="H880" s="13"/>
-      <c r="K880" s="12"/>
+      <c r="G880" s="11"/>
+      <c r="H880" s="12"/>
+      <c r="K880" s="11"/>
     </row>
     <row r="881" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G881" s="12"/>
-      <c r="H881" s="13"/>
-      <c r="K881" s="12"/>
+      <c r="G881" s="11"/>
+      <c r="H881" s="12"/>
+      <c r="K881" s="11"/>
     </row>
     <row r="882" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G882" s="12"/>
-      <c r="H882" s="13"/>
-      <c r="K882" s="12"/>
+      <c r="G882" s="11"/>
+      <c r="H882" s="12"/>
+      <c r="K882" s="11"/>
     </row>
     <row r="883" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G883" s="12"/>
-      <c r="H883" s="13"/>
-      <c r="K883" s="12"/>
+      <c r="G883" s="11"/>
+      <c r="H883" s="12"/>
+      <c r="K883" s="11"/>
     </row>
     <row r="884" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G884" s="12"/>
-      <c r="H884" s="13"/>
-      <c r="K884" s="12"/>
+      <c r="G884" s="11"/>
+      <c r="H884" s="12"/>
+      <c r="K884" s="11"/>
     </row>
     <row r="885" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G885" s="12"/>
-      <c r="H885" s="13"/>
-      <c r="K885" s="12"/>
+      <c r="G885" s="11"/>
+      <c r="H885" s="12"/>
+      <c r="K885" s="11"/>
     </row>
     <row r="886" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G886" s="12"/>
-      <c r="H886" s="13"/>
-      <c r="K886" s="12"/>
+      <c r="G886" s="11"/>
+      <c r="H886" s="12"/>
+      <c r="K886" s="11"/>
     </row>
     <row r="887" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G887" s="12"/>
-      <c r="H887" s="13"/>
-      <c r="K887" s="12"/>
+      <c r="G887" s="11"/>
+      <c r="H887" s="12"/>
+      <c r="K887" s="11"/>
     </row>
     <row r="888" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G888" s="12"/>
-      <c r="H888" s="13"/>
-      <c r="K888" s="12"/>
+      <c r="G888" s="11"/>
+      <c r="H888" s="12"/>
+      <c r="K888" s="11"/>
     </row>
     <row r="889" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G889" s="12"/>
-      <c r="H889" s="13"/>
-      <c r="K889" s="12"/>
+      <c r="G889" s="11"/>
+      <c r="H889" s="12"/>
+      <c r="K889" s="11"/>
     </row>
     <row r="890" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G890" s="12"/>
-      <c r="H890" s="13"/>
-      <c r="K890" s="12"/>
+      <c r="G890" s="11"/>
+      <c r="H890" s="12"/>
+      <c r="K890" s="11"/>
     </row>
     <row r="891" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G891" s="12"/>
-      <c r="H891" s="13"/>
-      <c r="K891" s="12"/>
+      <c r="G891" s="11"/>
+      <c r="H891" s="12"/>
+      <c r="K891" s="11"/>
     </row>
     <row r="892" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G892" s="12"/>
-      <c r="H892" s="13"/>
-      <c r="K892" s="12"/>
+      <c r="G892" s="11"/>
+      <c r="H892" s="12"/>
+      <c r="K892" s="11"/>
     </row>
     <row r="893" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G893" s="12"/>
-      <c r="H893" s="13"/>
-      <c r="K893" s="12"/>
+      <c r="G893" s="11"/>
+      <c r="H893" s="12"/>
+      <c r="K893" s="11"/>
     </row>
     <row r="894" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G894" s="12"/>
-      <c r="H894" s="13"/>
-      <c r="K894" s="12"/>
+      <c r="G894" s="11"/>
+      <c r="H894" s="12"/>
+      <c r="K894" s="11"/>
     </row>
     <row r="895" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G895" s="12"/>
-      <c r="H895" s="13"/>
-      <c r="K895" s="12"/>
+      <c r="G895" s="11"/>
+      <c r="H895" s="12"/>
+      <c r="K895" s="11"/>
     </row>
     <row r="896" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G896" s="12"/>
-      <c r="H896" s="13"/>
-      <c r="K896" s="12"/>
+      <c r="G896" s="11"/>
+      <c r="H896" s="12"/>
+      <c r="K896" s="11"/>
     </row>
     <row r="897" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G897" s="12"/>
-      <c r="H897" s="13"/>
-      <c r="K897" s="12"/>
+      <c r="G897" s="11"/>
+      <c r="H897" s="12"/>
+      <c r="K897" s="11"/>
     </row>
     <row r="898" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G898" s="12"/>
-      <c r="H898" s="13"/>
-      <c r="K898" s="12"/>
+      <c r="G898" s="11"/>
+      <c r="H898" s="12"/>
+      <c r="K898" s="11"/>
     </row>
     <row r="899" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G899" s="12"/>
-      <c r="H899" s="13"/>
-      <c r="K899" s="12"/>
+      <c r="G899" s="11"/>
+      <c r="H899" s="12"/>
+      <c r="K899" s="11"/>
     </row>
     <row r="900" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G900" s="12"/>
-      <c r="H900" s="13"/>
-      <c r="K900" s="12"/>
+      <c r="G900" s="11"/>
+      <c r="H900" s="12"/>
+      <c r="K900" s="11"/>
     </row>
     <row r="901" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G901" s="12"/>
-      <c r="H901" s="13"/>
-      <c r="K901" s="12"/>
+      <c r="G901" s="11"/>
+      <c r="H901" s="12"/>
+      <c r="K901" s="11"/>
     </row>
     <row r="902" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G902" s="12"/>
-      <c r="H902" s="13"/>
-      <c r="K902" s="12"/>
+      <c r="G902" s="11"/>
+      <c r="H902" s="12"/>
+      <c r="K902" s="11"/>
     </row>
     <row r="903" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G903" s="12"/>
-      <c r="H903" s="13"/>
-      <c r="K903" s="12"/>
+      <c r="G903" s="11"/>
+      <c r="H903" s="12"/>
+      <c r="K903" s="11"/>
     </row>
     <row r="904" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G904" s="12"/>
-      <c r="H904" s="13"/>
-      <c r="K904" s="12"/>
+      <c r="G904" s="11"/>
+      <c r="H904" s="12"/>
+      <c r="K904" s="11"/>
     </row>
     <row r="905" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G905" s="12"/>
-      <c r="H905" s="13"/>
-      <c r="K905" s="12"/>
+      <c r="G905" s="11"/>
+      <c r="H905" s="12"/>
+      <c r="K905" s="11"/>
     </row>
     <row r="906" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G906" s="12"/>
-      <c r="H906" s="13"/>
-      <c r="K906" s="12"/>
+      <c r="G906" s="11"/>
+      <c r="H906" s="12"/>
+      <c r="K906" s="11"/>
     </row>
     <row r="907" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G907" s="12"/>
-      <c r="H907" s="13"/>
-      <c r="K907" s="12"/>
+      <c r="G907" s="11"/>
+      <c r="H907" s="12"/>
+      <c r="K907" s="11"/>
     </row>
     <row r="908" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G908" s="12"/>
-      <c r="H908" s="13"/>
-      <c r="K908" s="12"/>
+      <c r="G908" s="11"/>
+      <c r="H908" s="12"/>
+      <c r="K908" s="11"/>
     </row>
     <row r="909" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G909" s="12"/>
-      <c r="H909" s="13"/>
-      <c r="K909" s="12"/>
+      <c r="G909" s="11"/>
+      <c r="H909" s="12"/>
+      <c r="K909" s="11"/>
     </row>
     <row r="910" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G910" s="12"/>
-      <c r="H910" s="13"/>
-      <c r="K910" s="12"/>
+      <c r="G910" s="11"/>
+      <c r="H910" s="12"/>
+      <c r="K910" s="11"/>
     </row>
     <row r="911" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G911" s="12"/>
-      <c r="H911" s="13"/>
-      <c r="K911" s="12"/>
+      <c r="G911" s="11"/>
+      <c r="H911" s="12"/>
+      <c r="K911" s="11"/>
     </row>
     <row r="912" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G912" s="12"/>
-      <c r="H912" s="13"/>
-      <c r="K912" s="12"/>
+      <c r="G912" s="11"/>
+      <c r="H912" s="12"/>
+      <c r="K912" s="11"/>
     </row>
     <row r="913" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G913" s="12"/>
-      <c r="H913" s="13"/>
-      <c r="K913" s="12"/>
+      <c r="G913" s="11"/>
+      <c r="H913" s="12"/>
+      <c r="K913" s="11"/>
     </row>
     <row r="914" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G914" s="12"/>
-      <c r="H914" s="13"/>
-      <c r="K914" s="12"/>
+      <c r="G914" s="11"/>
+      <c r="H914" s="12"/>
+      <c r="K914" s="11"/>
     </row>
     <row r="915" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G915" s="12"/>
-      <c r="H915" s="13"/>
-      <c r="K915" s="12"/>
+      <c r="G915" s="11"/>
+      <c r="H915" s="12"/>
+      <c r="K915" s="11"/>
     </row>
     <row r="916" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G916" s="12"/>
-      <c r="H916" s="13"/>
-      <c r="K916" s="12"/>
+      <c r="G916" s="11"/>
+      <c r="H916" s="12"/>
+      <c r="K916" s="11"/>
     </row>
     <row r="917" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G917" s="12"/>
-      <c r="H917" s="13"/>
-      <c r="K917" s="12"/>
+      <c r="G917" s="11"/>
+      <c r="H917" s="12"/>
+      <c r="K917" s="11"/>
     </row>
     <row r="918" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G918" s="12"/>
-      <c r="H918" s="13"/>
-      <c r="K918" s="12"/>
+      <c r="G918" s="11"/>
+      <c r="H918" s="12"/>
+      <c r="K918" s="11"/>
     </row>
     <row r="919" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G919" s="12"/>
-      <c r="H919" s="13"/>
-      <c r="K919" s="12"/>
+      <c r="G919" s="11"/>
+      <c r="H919" s="12"/>
+      <c r="K919" s="11"/>
     </row>
     <row r="920" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G920" s="12"/>
-      <c r="H920" s="13"/>
-      <c r="K920" s="12"/>
+      <c r="G920" s="11"/>
+      <c r="H920" s="12"/>
+      <c r="K920" s="11"/>
     </row>
     <row r="921" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G921" s="12"/>
-      <c r="H921" s="13"/>
-      <c r="K921" s="12"/>
+      <c r="G921" s="11"/>
+      <c r="H921" s="12"/>
+      <c r="K921" s="11"/>
     </row>
     <row r="922" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G922" s="12"/>
-      <c r="H922" s="13"/>
-      <c r="K922" s="12"/>
+      <c r="G922" s="11"/>
+      <c r="H922" s="12"/>
+      <c r="K922" s="11"/>
     </row>
     <row r="923" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G923" s="12"/>
-      <c r="H923" s="13"/>
-      <c r="K923" s="12"/>
+      <c r="G923" s="11"/>
+      <c r="H923" s="12"/>
+      <c r="K923" s="11"/>
     </row>
     <row r="924" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G924" s="12"/>
-      <c r="H924" s="13"/>
-      <c r="K924" s="12"/>
+      <c r="G924" s="11"/>
+      <c r="H924" s="12"/>
+      <c r="K924" s="11"/>
     </row>
     <row r="925" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G925" s="12"/>
-      <c r="H925" s="13"/>
-      <c r="K925" s="12"/>
+      <c r="G925" s="11"/>
+      <c r="H925" s="12"/>
+      <c r="K925" s="11"/>
     </row>
     <row r="926" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G926" s="12"/>
-      <c r="H926" s="13"/>
-      <c r="K926" s="12"/>
+      <c r="G926" s="11"/>
+      <c r="H926" s="12"/>
+      <c r="K926" s="11"/>
     </row>
     <row r="927" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G927" s="12"/>
-      <c r="H927" s="13"/>
-      <c r="K927" s="12"/>
+      <c r="G927" s="11"/>
+      <c r="H927" s="12"/>
+      <c r="K927" s="11"/>
     </row>
     <row r="928" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G928" s="12"/>
-      <c r="H928" s="13"/>
-      <c r="K928" s="12"/>
+      <c r="G928" s="11"/>
+      <c r="H928" s="12"/>
+      <c r="K928" s="11"/>
     </row>
     <row r="929" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G929" s="12"/>
-      <c r="H929" s="13"/>
-      <c r="K929" s="12"/>
+      <c r="G929" s="11"/>
+      <c r="H929" s="12"/>
+      <c r="K929" s="11"/>
     </row>
     <row r="930" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G930" s="12"/>
-      <c r="H930" s="13"/>
-      <c r="K930" s="12"/>
+      <c r="G930" s="11"/>
+      <c r="H930" s="12"/>
+      <c r="K930" s="11"/>
     </row>
     <row r="931" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G931" s="12"/>
-      <c r="H931" s="13"/>
-      <c r="K931" s="12"/>
+      <c r="G931" s="11"/>
+      <c r="H931" s="12"/>
+      <c r="K931" s="11"/>
     </row>
     <row r="932" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G932" s="12"/>
-      <c r="H932" s="13"/>
-      <c r="K932" s="12"/>
+      <c r="G932" s="11"/>
+      <c r="H932" s="12"/>
+      <c r="K932" s="11"/>
     </row>
     <row r="933" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G933" s="12"/>
-      <c r="H933" s="13"/>
-      <c r="K933" s="12"/>
+      <c r="G933" s="11"/>
+      <c r="H933" s="12"/>
+      <c r="K933" s="11"/>
     </row>
     <row r="934" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G934" s="12"/>
-      <c r="H934" s="13"/>
-      <c r="K934" s="12"/>
+      <c r="G934" s="11"/>
+      <c r="H934" s="12"/>
+      <c r="K934" s="11"/>
     </row>
     <row r="935" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G935" s="12"/>
-      <c r="H935" s="13"/>
-      <c r="K935" s="12"/>
+      <c r="G935" s="11"/>
+      <c r="H935" s="12"/>
+      <c r="K935" s="11"/>
     </row>
     <row r="936" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G936" s="12"/>
-      <c r="H936" s="13"/>
-      <c r="K936" s="12"/>
+      <c r="G936" s="11"/>
+      <c r="H936" s="12"/>
+      <c r="K936" s="11"/>
     </row>
     <row r="937" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G937" s="12"/>
-      <c r="H937" s="13"/>
-      <c r="K937" s="12"/>
+      <c r="G937" s="11"/>
+      <c r="H937" s="12"/>
+      <c r="K937" s="11"/>
     </row>
     <row r="938" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G938" s="12"/>
-      <c r="H938" s="13"/>
-      <c r="K938" s="12"/>
+      <c r="G938" s="11"/>
+      <c r="H938" s="12"/>
+      <c r="K938" s="11"/>
     </row>
     <row r="939" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G939" s="12"/>
-      <c r="H939" s="13"/>
-      <c r="K939" s="12"/>
+      <c r="G939" s="11"/>
+      <c r="H939" s="12"/>
+      <c r="K939" s="11"/>
     </row>
     <row r="940" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G940" s="12"/>
-      <c r="H940" s="13"/>
-      <c r="K940" s="12"/>
+      <c r="G940" s="11"/>
+      <c r="H940" s="12"/>
+      <c r="K940" s="11"/>
     </row>
     <row r="941" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G941" s="12"/>
-      <c r="H941" s="13"/>
-      <c r="K941" s="12"/>
+      <c r="G941" s="11"/>
+      <c r="H941" s="12"/>
+      <c r="K941" s="11"/>
     </row>
     <row r="942" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G942" s="12"/>
-      <c r="H942" s="13"/>
-      <c r="K942" s="12"/>
+      <c r="G942" s="11"/>
+      <c r="H942" s="12"/>
+      <c r="K942" s="11"/>
     </row>
     <row r="943" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G943" s="12"/>
-      <c r="H943" s="13"/>
-      <c r="K943" s="12"/>
+      <c r="G943" s="11"/>
+      <c r="H943" s="12"/>
+      <c r="K943" s="11"/>
     </row>
     <row r="944" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G944" s="12"/>
-      <c r="H944" s="13"/>
-      <c r="K944" s="12"/>
+      <c r="G944" s="11"/>
+      <c r="H944" s="12"/>
+      <c r="K944" s="11"/>
     </row>
     <row r="945" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G945" s="12"/>
-      <c r="H945" s="13"/>
-      <c r="K945" s="12"/>
+      <c r="G945" s="11"/>
+      <c r="H945" s="12"/>
+      <c r="K945" s="11"/>
     </row>
     <row r="946" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G946" s="12"/>
-      <c r="H946" s="13"/>
-      <c r="K946" s="12"/>
+      <c r="G946" s="11"/>
+      <c r="H946" s="12"/>
+      <c r="K946" s="11"/>
     </row>
     <row r="947" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G947" s="12"/>
-      <c r="H947" s="13"/>
-      <c r="K947" s="12"/>
+      <c r="G947" s="11"/>
+      <c r="H947" s="12"/>
+      <c r="K947" s="11"/>
     </row>
     <row r="948" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G948" s="12"/>
-      <c r="H948" s="13"/>
-      <c r="K948" s="12"/>
+      <c r="G948" s="11"/>
+      <c r="H948" s="12"/>
+      <c r="K948" s="11"/>
     </row>
     <row r="949" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G949" s="12"/>
-      <c r="H949" s="13"/>
-      <c r="K949" s="12"/>
+      <c r="G949" s="11"/>
+      <c r="H949" s="12"/>
+      <c r="K949" s="11"/>
     </row>
     <row r="950" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G950" s="12"/>
-      <c r="H950" s="13"/>
-      <c r="K950" s="12"/>
+      <c r="G950" s="11"/>
+      <c r="H950" s="12"/>
+      <c r="K950" s="11"/>
     </row>
     <row r="951" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G951" s="12"/>
-      <c r="H951" s="13"/>
-      <c r="K951" s="12"/>
+      <c r="G951" s="11"/>
+      <c r="H951" s="12"/>
+      <c r="K951" s="11"/>
     </row>
     <row r="952" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G952" s="12"/>
-      <c r="H952" s="13"/>
-      <c r="K952" s="12"/>
+      <c r="G952" s="11"/>
+      <c r="H952" s="12"/>
+      <c r="K952" s="11"/>
     </row>
     <row r="953" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G953" s="12"/>
-      <c r="H953" s="13"/>
-      <c r="K953" s="12"/>
+      <c r="G953" s="11"/>
+      <c r="H953" s="12"/>
+      <c r="K953" s="11"/>
     </row>
     <row r="954" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G954" s="12"/>
-      <c r="H954" s="13"/>
-      <c r="K954" s="12"/>
+      <c r="G954" s="11"/>
+      <c r="H954" s="12"/>
+      <c r="K954" s="11"/>
     </row>
     <row r="955" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G955" s="12"/>
-      <c r="H955" s="13"/>
-      <c r="K955" s="12"/>
+      <c r="G955" s="11"/>
+      <c r="H955" s="12"/>
+      <c r="K955" s="11"/>
     </row>
     <row r="956" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G956" s="12"/>
-      <c r="H956" s="13"/>
-      <c r="K956" s="12"/>
+      <c r="G956" s="11"/>
+      <c r="H956" s="12"/>
+      <c r="K956" s="11"/>
     </row>
     <row r="957" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G957" s="12"/>
-      <c r="H957" s="13"/>
-      <c r="K957" s="12"/>
+      <c r="G957" s="11"/>
+      <c r="H957" s="12"/>
+      <c r="K957" s="11"/>
     </row>
     <row r="958" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G958" s="12"/>
-      <c r="H958" s="13"/>
-      <c r="K958" s="12"/>
+      <c r="G958" s="11"/>
+      <c r="H958" s="12"/>
+      <c r="K958" s="11"/>
     </row>
     <row r="959" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G959" s="12"/>
-      <c r="H959" s="13"/>
-      <c r="K959" s="12"/>
+      <c r="G959" s="11"/>
+      <c r="H959" s="12"/>
+      <c r="K959" s="11"/>
     </row>
     <row r="960" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G960" s="12"/>
-      <c r="H960" s="13"/>
-      <c r="K960" s="12"/>
+      <c r="G960" s="11"/>
+      <c r="H960" s="12"/>
+      <c r="K960" s="11"/>
     </row>
     <row r="961" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G961" s="12"/>
-      <c r="H961" s="13"/>
-      <c r="K961" s="12"/>
+      <c r="G961" s="11"/>
+      <c r="H961" s="12"/>
+      <c r="K961" s="11"/>
     </row>
     <row r="962" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G962" s="12"/>
-      <c r="H962" s="13"/>
-      <c r="K962" s="12"/>
+      <c r="G962" s="11"/>
+      <c r="H962" s="12"/>
+      <c r="K962" s="11"/>
     </row>
     <row r="963" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G963" s="12"/>
-      <c r="H963" s="13"/>
-      <c r="K963" s="12"/>
+      <c r="G963" s="11"/>
+      <c r="H963" s="12"/>
+      <c r="K963" s="11"/>
     </row>
     <row r="964" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G964" s="12"/>
-      <c r="H964" s="13"/>
-      <c r="K964" s="12"/>
+      <c r="G964" s="11"/>
+      <c r="H964" s="12"/>
+      <c r="K964" s="11"/>
     </row>
     <row r="965" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G965" s="12"/>
-      <c r="H965" s="13"/>
-      <c r="K965" s="12"/>
+      <c r="G965" s="11"/>
+      <c r="H965" s="12"/>
+      <c r="K965" s="11"/>
     </row>
     <row r="966" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G966" s="12"/>
-      <c r="H966" s="13"/>
-      <c r="K966" s="12"/>
+      <c r="G966" s="11"/>
+      <c r="H966" s="12"/>
+      <c r="K966" s="11"/>
     </row>
     <row r="967" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G967" s="12"/>
-      <c r="H967" s="13"/>
-      <c r="K967" s="12"/>
+      <c r="G967" s="11"/>
+      <c r="H967" s="12"/>
+      <c r="K967" s="11"/>
     </row>
     <row r="968" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G968" s="12"/>
-      <c r="H968" s="13"/>
-      <c r="K968" s="12"/>
+      <c r="G968" s="11"/>
+      <c r="H968" s="12"/>
+      <c r="K968" s="11"/>
     </row>
     <row r="969" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G969" s="12"/>
-      <c r="H969" s="13"/>
-      <c r="K969" s="12"/>
+      <c r="G969" s="11"/>
+      <c r="H969" s="12"/>
+      <c r="K969" s="11"/>
     </row>
     <row r="970" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G970" s="12"/>
-      <c r="H970" s="13"/>
-      <c r="K970" s="12"/>
+      <c r="G970" s="11"/>
+      <c r="H970" s="12"/>
+      <c r="K970" s="11"/>
     </row>
     <row r="971" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G971" s="12"/>
-      <c r="H971" s="13"/>
-      <c r="K971" s="12"/>
+      <c r="G971" s="11"/>
+      <c r="H971" s="12"/>
+      <c r="K971" s="11"/>
     </row>
     <row r="972" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G972" s="12"/>
-      <c r="H972" s="13"/>
-      <c r="K972" s="12"/>
+      <c r="G972" s="11"/>
+      <c r="H972" s="12"/>
+      <c r="K972" s="11"/>
     </row>
     <row r="973" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G973" s="12"/>
-      <c r="H973" s="13"/>
-      <c r="K973" s="12"/>
+      <c r="G973" s="11"/>
+      <c r="H973" s="12"/>
+      <c r="K973" s="11"/>
     </row>
     <row r="974" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G974" s="12"/>
-      <c r="H974" s="13"/>
-      <c r="K974" s="12"/>
+      <c r="G974" s="11"/>
+      <c r="H974" s="12"/>
+      <c r="K974" s="11"/>
     </row>
     <row r="975" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G975" s="12"/>
-      <c r="H975" s="13"/>
-      <c r="K975" s="12"/>
+      <c r="G975" s="11"/>
+      <c r="H975" s="12"/>
+      <c r="K975" s="11"/>
     </row>
     <row r="976" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G976" s="12"/>
-      <c r="H976" s="13"/>
-      <c r="K976" s="12"/>
+      <c r="G976" s="11"/>
+      <c r="H976" s="12"/>
+      <c r="K976" s="11"/>
     </row>
     <row r="977" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G977" s="12"/>
-      <c r="H977" s="13"/>
-      <c r="K977" s="12"/>
+      <c r="G977" s="11"/>
+      <c r="H977" s="12"/>
+      <c r="K977" s="11"/>
     </row>
     <row r="978" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G978" s="12"/>
-      <c r="H978" s="13"/>
-      <c r="K978" s="12"/>
+      <c r="G978" s="11"/>
+      <c r="H978" s="12"/>
+      <c r="K978" s="11"/>
     </row>
     <row r="979" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G979" s="12"/>
-      <c r="H979" s="13"/>
-      <c r="K979" s="12"/>
+      <c r="G979" s="11"/>
+      <c r="H979" s="12"/>
+      <c r="K979" s="11"/>
     </row>
     <row r="980" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G980" s="12"/>
-      <c r="H980" s="13"/>
-      <c r="K980" s="12"/>
+      <c r="G980" s="11"/>
+      <c r="H980" s="12"/>
+      <c r="K980" s="11"/>
     </row>
     <row r="981" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G981" s="12"/>
-      <c r="H981" s="13"/>
-      <c r="K981" s="12"/>
+      <c r="G981" s="11"/>
+      <c r="H981" s="12"/>
+      <c r="K981" s="11"/>
     </row>
     <row r="982" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G982" s="12"/>
-      <c r="H982" s="13"/>
-      <c r="K982" s="12"/>
+      <c r="G982" s="11"/>
+      <c r="H982" s="12"/>
+      <c r="K982" s="11"/>
     </row>
     <row r="983" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G983" s="12"/>
-      <c r="H983" s="13"/>
-      <c r="K983" s="12"/>
+      <c r="G983" s="11"/>
+      <c r="H983" s="12"/>
+      <c r="K983" s="11"/>
     </row>
     <row r="984" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G984" s="12"/>
-      <c r="H984" s="13"/>
-      <c r="K984" s="12"/>
+      <c r="G984" s="11"/>
+      <c r="H984" s="12"/>
+      <c r="K984" s="11"/>
     </row>
     <row r="985" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G985" s="12"/>
-      <c r="H985" s="13"/>
-      <c r="K985" s="12"/>
+      <c r="G985" s="11"/>
+      <c r="H985" s="12"/>
+      <c r="K985" s="11"/>
     </row>
     <row r="986" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G986" s="12"/>
-      <c r="H986" s="13"/>
-      <c r="K986" s="12"/>
+      <c r="G986" s="11"/>
+      <c r="H986" s="12"/>
+      <c r="K986" s="11"/>
     </row>
     <row r="987" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G987" s="12"/>
-      <c r="H987" s="13"/>
-      <c r="K987" s="12"/>
+      <c r="G987" s="11"/>
+      <c r="H987" s="12"/>
+      <c r="K987" s="11"/>
     </row>
     <row r="988" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G988" s="12"/>
-      <c r="H988" s="13"/>
-      <c r="K988" s="12"/>
+      <c r="G988" s="11"/>
+      <c r="H988" s="12"/>
+      <c r="K988" s="11"/>
     </row>
     <row r="989" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G989" s="12"/>
-      <c r="H989" s="13"/>
-      <c r="K989" s="12"/>
+      <c r="G989" s="11"/>
+      <c r="H989" s="12"/>
+      <c r="K989" s="11"/>
     </row>
     <row r="990" ht="15.75" customHeight="1" spans="7:11">
-      <c r="G990" s="12"/>
-      <c r="H990" s="13"/>
-      <c r="K990" s="12"/>
+      <c r="G990" s="11"/>
+      <c r="H990" s="12"/>
+      <c r="K990" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/qc/static/qc/QC Seiscomp.xlsx
+++ b/qc/static/qc/QC Seiscomp.xlsx
@@ -1366,7 +1366,7 @@
   <dimension ref="B1:N990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
@@ -1539,7 +1539,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" ht="23.4" customHeight="1" spans="2:14">
+    <row r="10" ht="23.4" spans="2:14">
       <c r="B10" s="10"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="2:14">
+    <row r="11" ht="23.4" spans="2:14">
       <c r="B11" s="10"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
